--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0571635-8377-4761-8D0F-D50AEEF9E814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58CAB5C-4A5F-4DA7-A486-DA04344B5B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6470" yWindow="420" windowWidth="12200" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="360" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="ID" sheetId="5" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="350">
   <si>
     <t>User</t>
   </si>
@@ -1062,13 +1063,7 @@
     <t>鳥</t>
   </si>
   <si>
-    <t>產生編號</t>
-  </si>
-  <si>
     <t>報表編號</t>
-  </si>
-  <si>
-    <t>需手動將產生編號移過來</t>
   </si>
   <si>
     <t>REPORT_ID</t>
@@ -1165,9 +1160,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1258,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1301,12 +1293,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1656,7 +1642,7 @@
   <dimension ref="A1:DP5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1665,8 +1651,8 @@
     <col min="3" max="3" width="17.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="13" customWidth="1"/>
     <col min="5" max="5" width="23.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.19921875" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.19921875" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="13" bestFit="1" customWidth="1"/>
@@ -1723,7 +1709,7 @@
     <col min="122" max="16384" width="8.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2072,7 @@
       </c>
     </row>
     <row r="2" spans="1:120" s="1" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
+      <c r="A2" s="16"/>
       <c r="D2" s="15" t="s">
         <v>126</v>
       </c>
@@ -2354,7 +2340,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:120" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>179</v>
       </c>
@@ -2716,12 +2702,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:120" s="20" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+    <row r="4" spans="1:120" s="18" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>299</v>
@@ -2952,7 +2938,7 @@
       <c r="DP4" s="1"/>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.3">
-      <c r="CH5" s="22"/>
+      <c r="CH5" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2962,1073 +2948,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DR4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5352A3-E679-419D-9ED4-1A8566337D58}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="13" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:122" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:DP4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:120" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AI1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="BP1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="BR1" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BU1" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BV1" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="BW1" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BX1" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BY1" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BZ1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="CA1" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="CG1" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="CH1" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="CI1" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="CJ1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="CK1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="CL1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="CM1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="CN1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="CO1" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="CP1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="CR1" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="CS1" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CT1" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CU1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="CX1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="CY1" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CZ1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DC1" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DE1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="DF1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="DG1" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="DI1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DL1" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="DK1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="DM1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DR1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:122" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+    <row r="2" spans="1:120" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>126</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="R2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="AB2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AG2" s="1"/>
+      <c r="AG2" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="BT2" s="1"/>
       <c r="BU2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BV2" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="BW2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BY2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="CG2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CI2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL2" s="1"/>
       <c r="CM2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CO2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CR2" s="1"/>
       <c r="CS2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CU2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CX2" s="1"/>
       <c r="CY2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DA2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DB2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DD2" s="1"/>
       <c r="DE2" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DH2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="DI2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DJ2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="DK2" s="1"/>
       <c r="DL2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM2" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="DN2" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DP2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DQ2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DR2" s="1"/>
+      <c r="DP2" s="1"/>
     </row>
-    <row r="3" spans="1:122" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:120" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>186</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="DR3" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:122" s="5" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13">
+    <row r="4" spans="1:120" s="5" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="15">
+        <v>1016</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="15">
-        <v>1016</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="10"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4042,13 +4045,13 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="W4" s="6"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="6"/>
+      <c r="Y4" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -4103,9 +4106,9 @@
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
+      <c r="CD4" s="6"/>
       <c r="CE4" s="1"/>
-      <c r="CF4" s="6"/>
+      <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -4142,8 +4145,6 @@
       <c r="DN4" s="1"/>
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
-      <c r="DQ4" s="1"/>
-      <c r="DR4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4152,17 +4153,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DP1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:120" s="20" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" s="18" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="1">
@@ -4228,13 +4229,13 @@
         <v>2</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="X1" s="1">
         <v>1</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Z1" s="1" t="b">
         <v>1</v>
@@ -4261,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AI1" s="1">
         <v>-14</v>
@@ -4270,7 +4271,7 @@
         <v>-12</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AL1" s="1">
         <v>-14</v>
@@ -4279,7 +4280,7 @@
         <v>-12</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AO1" s="1">
         <v>-14</v>
@@ -4297,31 +4298,31 @@
         <v>0</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="AZ1" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BC1" s="1">
         <v>7</v>
@@ -4348,19 +4349,19 @@
         <v>1</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BN1" s="1">
         <v>-10</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1" t="b">
@@ -4373,7 +4374,7 @@
         <v>-10</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BU1" s="1">
         <v>1</v>
@@ -4382,16 +4383,16 @@
         <v>1</v>
       </c>
       <c r="BW1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="CA1" s="1">
         <v>1</v>
@@ -4400,7 +4401,7 @@
         <v>-10</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="CD1" s="6" t="s">
         <v>313</v>
@@ -4412,16 +4413,16 @@
         <v>2</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="CK1" s="1">
         <v>1</v>
@@ -4430,16 +4431,16 @@
         <v>1</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="CQ1" s="1">
         <v>1</v>
@@ -4448,16 +4449,16 @@
         <v>1</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="CW1" s="1">
         <v>1</v>
@@ -4466,16 +4467,16 @@
         <v>1</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="DC1" s="1">
         <v>1</v>
@@ -4484,16 +4485,16 @@
         <v>1</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="DI1" s="1" t="s">
         <v>313</v>
@@ -4502,13 +4503,13 @@
         <v>2</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="DL1" s="1" t="b">
         <v>1</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="DN1" s="1">
         <v>-20</v>

--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58CAB5C-4A5F-4DA7-A486-DA04344B5B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CBE80-063D-4C24-A1D1-ED9B45683BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="360" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="ID" sheetId="5" r:id="rId3"/>
-    <sheet name="update" sheetId="3" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
+    <sheet name="update" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="348">
   <si>
     <t>User</t>
   </si>
@@ -1061,12 +1060,6 @@
   </si>
   <si>
     <t>鳥</t>
-  </si>
-  <si>
-    <t>報表編號</t>
-  </si>
-  <si>
-    <t>REPORT_ID</t>
   </si>
   <si>
     <t>全測試+自填診斷單位 診斷日</t>
@@ -1705,8 +1698,8 @@
     <col min="116" max="116" width="32.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="117" max="119" width="32.3984375" style="13" customWidth="1"/>
     <col min="120" max="120" width="10.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.796875" style="13" customWidth="1"/>
-    <col min="122" max="16384" width="8.796875" style="13"/>
+    <col min="121" max="122" width="8.796875" style="13" customWidth="1"/>
+    <col min="123" max="16384" width="8.796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:120" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2948,45 +2941,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5352A3-E679-419D-9ED4-1A8566337D58}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:DP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DP4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4153,8 +4111,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DP1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4171,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="1">
@@ -4229,13 +4187,13 @@
         <v>2</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="X1" s="1">
         <v>1</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Z1" s="1" t="b">
         <v>1</v>
@@ -4262,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AI1" s="1">
         <v>-14</v>
@@ -4271,7 +4229,7 @@
         <v>-12</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL1" s="1">
         <v>-14</v>
@@ -4280,7 +4238,7 @@
         <v>-12</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AO1" s="1">
         <v>-14</v>
@@ -4298,31 +4256,31 @@
         <v>0</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="AZ1" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BC1" s="1">
         <v>7</v>
@@ -4349,19 +4307,19 @@
         <v>1</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BN1" s="1">
         <v>-10</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1" t="b">
@@ -4374,7 +4332,7 @@
         <v>-10</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BU1" s="1">
         <v>1</v>
@@ -4383,16 +4341,16 @@
         <v>1</v>
       </c>
       <c r="BW1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="CA1" s="1">
         <v>1</v>
@@ -4401,7 +4359,7 @@
         <v>-10</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="CD1" s="6" t="s">
         <v>313</v>
@@ -4413,16 +4371,16 @@
         <v>2</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="CK1" s="1">
         <v>1</v>
@@ -4431,16 +4389,16 @@
         <v>1</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="CQ1" s="1">
         <v>1</v>
@@ -4449,16 +4407,16 @@
         <v>1</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="CW1" s="1">
         <v>1</v>
@@ -4467,16 +4425,16 @@
         <v>1</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="DC1" s="1">
         <v>1</v>
@@ -4485,16 +4443,16 @@
         <v>1</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="DI1" s="1" t="s">
         <v>313</v>
@@ -4503,13 +4461,13 @@
         <v>2</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="DL1" s="1" t="b">
         <v>1</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="DN1" s="1">
         <v>-20</v>

--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CBE80-063D-4C24-A1D1-ED9B45683BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1944100-EB8D-4A99-97CA-35DBD72C1D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
     <sheet name="update" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="368">
   <si>
     <t>User</t>
   </si>
@@ -1148,12 +1147,92 @@
   <si>
     <t>犬</t>
   </si>
+  <si>
+    <t>登記類別未填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢體種類有填時 檢體編號未填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試醫師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z987654321</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國70/06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常，且有空洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,12 +1259,6 @@
       <name val="細明體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1243,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1282,25 +1355,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1585,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1632,10 +1702,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:DP5"/>
+  <dimension ref="A1:DP7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2930,8 +3000,759 @@
       </c>
       <c r="DP4" s="1"/>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
-      <c r="CH5" s="20"/>
+    <row r="5" spans="1:120" s="18" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="1">
+        <v>54321</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-5</v>
+      </c>
+      <c r="S5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AB5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AF5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>-14</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>-12</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>-14</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>-12</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>-14</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>-12</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AZ5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="CD5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CT5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CU5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CZ5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="DB5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="DF5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="DG5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="DH5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="DI5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DJ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="DL5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="DN5" s="1">
+        <v>-20</v>
+      </c>
+      <c r="DO5" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DP5" s="1"/>
+    </row>
+    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12345</v>
+      </c>
+      <c r="M6" s="1">
+        <v>54321</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>-5</v>
+      </c>
+      <c r="S6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AB6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>-20</v>
+      </c>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CW6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="DC6" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD6" s="1"/>
+      <c r="DE6" s="1"/>
+      <c r="DF6" s="1"/>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DI6" s="1"/>
+      <c r="DJ6" s="1">
+        <v>3</v>
+      </c>
+      <c r="DK6" s="1"/>
+      <c r="DL6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="DN6" s="1"/>
+      <c r="DO6" s="1"/>
+      <c r="DP6" s="1"/>
+    </row>
+    <row r="7" spans="1:120" ht="29" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="1">
+        <v>12345</v>
+      </c>
+      <c r="M7" s="1">
+        <v>54321</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="S7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AB7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="1"/>
+      <c r="DM7" s="1"/>
+      <c r="DN7" s="1"/>
+      <c r="DO7" s="1"/>
+      <c r="DP7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2942,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:DP4"/>
+  <dimension ref="A1:DP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4104,381 +4925,139 @@
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
     </row>
+    <row r="5" spans="1:120" s="5" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="15">
+        <v>1016</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:DP1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:120" s="18" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1" s="1">
-        <v>12345</v>
-      </c>
-      <c r="M1" s="1">
-        <v>54321</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="P1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R1" s="1">
-        <v>-5</v>
-      </c>
-      <c r="S1" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1">
-        <v>-5</v>
-      </c>
-      <c r="U1" s="1">
-        <v>-4</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="X1" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>-5</v>
-      </c>
-      <c r="AB1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>90</v>
-      </c>
-      <c r="AF1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>-14</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>-12</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>-14</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>-12</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>-14</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>-12</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AZ1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>7</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>2</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="CK1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="CQ1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="CW1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DC1" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD1" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="DJ1" s="1">
-        <v>2</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="DL1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="DN1" s="1">
-        <v>-20</v>
-      </c>
-      <c r="DO1" s="1">
-        <v>-18</v>
-      </c>
-      <c r="DP1" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1944100-EB8D-4A99-97CA-35DBD72C1D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658D121-E81C-4046-8A88-D771BE7C2EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="375">
   <si>
     <t>User</t>
   </si>
@@ -1227,12 +1227,39 @@
     <t>痰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值設定須為文字/ True 或 False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增修限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,6 +1294,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1316,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1373,6 +1407,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1659,12 +1697,12 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1702,77 +1740,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:DP7"/>
+  <dimension ref="A1:DQ7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.796875" style="13" customWidth="1"/>
-    <col min="19" max="19" width="15.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="17.8984375" style="13" customWidth="1"/>
-    <col min="25" max="25" width="18.5" style="13" customWidth="1"/>
-    <col min="26" max="26" width="30.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="30.8984375" style="13" customWidth="1"/>
-    <col min="33" max="33" width="26.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.3984375" style="13" customWidth="1"/>
-    <col min="36" max="36" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.3984375" style="13" customWidth="1"/>
-    <col min="39" max="39" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.09765625" style="13" customWidth="1"/>
-    <col min="42" max="42" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26" style="13" bestFit="1" customWidth="1"/>
-    <col min="45" max="50" width="26" style="13" customWidth="1"/>
-    <col min="51" max="52" width="9.59765625" style="13" customWidth="1"/>
-    <col min="53" max="53" width="16.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="29.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="26.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="22.19921875" style="13" customWidth="1"/>
-    <col min="60" max="60" width="27.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="33.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="22.19921875" style="13" customWidth="1"/>
-    <col min="64" max="64" width="32.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="32.59765625" style="13" customWidth="1"/>
-    <col min="67" max="67" width="32.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="70" max="114" width="23.59765625" style="13" customWidth="1"/>
-    <col min="115" max="115" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="32.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="117" max="119" width="32.3984375" style="13" customWidth="1"/>
-    <col min="120" max="120" width="10.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="8.796875" style="13" customWidth="1"/>
-    <col min="123" max="16384" width="8.796875" style="13"/>
+    <col min="4" max="4" width="17.3984375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.796875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.5" style="13" customWidth="1"/>
+    <col min="25" max="25" width="17.8984375" style="13" customWidth="1"/>
+    <col min="26" max="26" width="18.5" style="13" customWidth="1"/>
+    <col min="27" max="27" width="30.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="30.8984375" style="13" customWidth="1"/>
+    <col min="34" max="34" width="26.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.3984375" style="13" customWidth="1"/>
+    <col min="37" max="37" width="28.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.3984375" style="13" customWidth="1"/>
+    <col min="40" max="40" width="28.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.09765625" style="13" customWidth="1"/>
+    <col min="43" max="43" width="28.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26" style="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="51" width="26" style="13" customWidth="1"/>
+    <col min="52" max="53" width="9.59765625" style="13" customWidth="1"/>
+    <col min="54" max="54" width="16.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="22.19921875" style="13" customWidth="1"/>
+    <col min="61" max="61" width="27.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="33.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="22.19921875" style="13" customWidth="1"/>
+    <col min="65" max="65" width="32.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="32.59765625" style="13" customWidth="1"/>
+    <col min="68" max="68" width="32.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="71" max="115" width="23.59765625" style="13" customWidth="1"/>
+    <col min="116" max="116" width="31" style="13" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="32.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="32.3984375" style="13" customWidth="1"/>
+    <col min="121" max="121" width="10.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="8.796875" style="13" customWidth="1"/>
+    <col min="124" max="16384" width="8.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" s="18" customFormat="1" ht="43.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -1782,403 +1821,406 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:120" s="1" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:121" s="1" customFormat="1" ht="71" customHeight="1">
       <c r="A2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="P2" s="1" t="s">
+      <c r="H2" s="6"/>
+      <c r="Q2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>128</v>
@@ -2186,224 +2228,227 @@
       <c r="AD2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>150</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BI2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="BN2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="CI2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CL2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="CO2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CR2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="CU2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CX2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="DA2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DD2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DK2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="DP2" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="3" spans="1:120" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121" s="18" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>179</v>
       </c>
@@ -2413,359 +2458,362 @@
       <c r="C3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:120" s="18" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121" s="18" customFormat="1" ht="48.5" customHeight="1">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -2775,89 +2823,91 @@
       <c r="C4" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>12345</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>54321</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="P4" s="1" t="b">
+      <c r="Q4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1">
         <v>-5</v>
       </c>
-      <c r="S4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
+      <c r="T4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
         <v>-5</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>-4</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>2</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>2</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Z4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
         <v>-5</v>
       </c>
-      <c r="AB4" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AC4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AD4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
         <v>70</v>
       </c>
-      <c r="AF4" s="1" t="b">
+      <c r="AG4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -2867,16 +2917,16 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="1" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="1"/>
+      <c r="AS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
@@ -2899,108 +2949,109 @@
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
-      <c r="BQ4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="1">
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="1">
         <v>2</v>
       </c>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1" t="s">
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BU4" s="1">
+      <c r="BV4" s="1">
         <v>2</v>
       </c>
-      <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
-      <c r="BZ4" s="1" t="s">
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="CA4" s="1">
+      <c r="CB4" s="1">
         <v>2</v>
       </c>
-      <c r="CB4" s="1">
+      <c r="CC4" s="1">
         <v>-20</v>
       </c>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="6" t="s">
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="CE4" s="1">
+      <c r="CF4" s="1">
         <v>2</v>
       </c>
-      <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
-      <c r="CJ4" s="1" t="s">
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="CK4" s="1">
+      <c r="CL4" s="1">
         <v>2</v>
       </c>
-      <c r="CL4" s="1"/>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
-      <c r="CP4" s="1" t="s">
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CQ4" s="1">
+      <c r="CR4" s="1">
         <v>2</v>
       </c>
-      <c r="CR4" s="1"/>
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
-      <c r="CV4" s="1" t="s">
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CW4" s="1">
+      <c r="CX4" s="1">
         <v>2</v>
       </c>
-      <c r="CX4" s="1"/>
       <c r="CY4" s="1"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1"/>
-      <c r="DB4" s="1" t="s">
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="DC4" s="1">
+      <c r="DD4" s="1">
         <v>2</v>
       </c>
-      <c r="DD4" s="1"/>
       <c r="DE4" s="1"/>
       <c r="DF4" s="1"/>
       <c r="DG4" s="1"/>
-      <c r="DH4" s="1" t="s">
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="DI4" s="1" t="s">
+      <c r="DJ4" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="DJ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK4" s="1"/>
-      <c r="DL4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM4" s="1" t="s">
+      <c r="DK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN4" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="DN4" s="1">
+      <c r="DO4" s="1">
         <v>-30</v>
       </c>
-      <c r="DO4" s="1">
+      <c r="DP4" s="1">
         <v>-12</v>
       </c>
-      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
     </row>
-    <row r="5" spans="1:120" s="18" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121" s="18" customFormat="1" ht="48.5" customHeight="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3010,162 +3061,162 @@
       <c r="C5" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="1">
+      <c r="D5" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>12345</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>54321</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
         <v>-1</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>-5</v>
       </c>
-      <c r="S5" s="1" t="b">
+      <c r="T5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>-5</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>-4</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>2</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="Z5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
         <v>-5</v>
       </c>
-      <c r="AB5" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AC5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AD5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
         <v>90</v>
       </c>
-      <c r="AF5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AG5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>-14</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>-12</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>-14</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
         <v>-12</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AP5" s="1">
         <v>-14</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>-12</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AR5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="1" t="b">
+      <c r="AS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AZ5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BA5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="BC5" s="1">
+      <c r="BD5" s="1">
         <v>7</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>-10</v>
       </c>
       <c r="BE5" s="1">
         <v>-10</v>
@@ -3183,180 +3234,183 @@
         <v>-10</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="1" t="s">
+        <v>-10</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="BL5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="BM5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BN5" s="1">
+      <c r="BO5" s="1">
         <v>-10</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="1">
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="BS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="1">
         <v>-10</v>
       </c>
-      <c r="BT5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="BU5" s="1">
-        <v>1</v>
-      </c>
       <c r="BV5" s="1">
         <v>1</v>
       </c>
-      <c r="BW5" s="1" t="s">
+      <c r="BW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="BY5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="CA5" s="1">
-        <v>1</v>
-      </c>
       <c r="CB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="1">
         <v>-10</v>
       </c>
-      <c r="CC5" s="1" t="s">
+      <c r="CD5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CD5" s="6" t="s">
+      <c r="CE5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="CE5" s="1">
-        <v>1</v>
-      </c>
       <c r="CF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="1">
         <v>2</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="CH5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CH5" s="1" t="s">
+      <c r="CI5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CI5" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="CK5" s="1">
-        <v>1</v>
-      </c>
       <c r="CL5" s="1">
         <v>1</v>
       </c>
-      <c r="CM5" s="1" t="s">
+      <c r="CM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="CN5" s="1" t="s">
+      <c r="CO5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CO5" s="1" t="s">
+      <c r="CP5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CP5" s="1" t="s">
+      <c r="CQ5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="CQ5" s="1">
-        <v>1</v>
-      </c>
       <c r="CR5" s="1">
         <v>1</v>
       </c>
-      <c r="CS5" s="1" t="s">
+      <c r="CS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CT5" s="1" t="s">
+      <c r="CU5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CU5" s="1" t="s">
+      <c r="CV5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CV5" s="1" t="s">
+      <c r="CW5" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="CW5" s="1">
-        <v>1</v>
-      </c>
       <c r="CX5" s="1">
         <v>1</v>
       </c>
-      <c r="CY5" s="1" t="s">
+      <c r="CY5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CZ5" s="1" t="s">
+      <c r="DA5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="DA5" s="1" t="s">
+      <c r="DB5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="DB5" s="1" t="s">
+      <c r="DC5" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="DC5" s="1">
-        <v>1</v>
-      </c>
       <c r="DD5" s="1">
         <v>1</v>
       </c>
-      <c r="DE5" s="1" t="s">
+      <c r="DE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="DF5" s="1" t="s">
+      <c r="DG5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="DG5" s="1" t="s">
+      <c r="DH5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="DH5" s="1" t="s">
+      <c r="DI5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="DI5" s="1" t="s">
+      <c r="DJ5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="DJ5" s="1">
+      <c r="DK5" s="1">
         <v>2</v>
       </c>
-      <c r="DK5" s="1" t="s">
+      <c r="DL5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="DL5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="1" t="s">
+      <c r="DM5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="DN5" s="1">
+      <c r="DO5" s="1">
         <v>-20</v>
       </c>
-      <c r="DO5" s="1">
+      <c r="DP5" s="1">
         <v>-18</v>
       </c>
-      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:121">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -3366,85 +3420,87 @@
       <c r="C6" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>12345</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>54321</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="P6" s="1" t="b">
+      <c r="Q6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1">
         <v>-5</v>
       </c>
-      <c r="S6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="T6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
         <v>-5</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>-4</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="1">
+      <c r="W6" s="1"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="1">
         <v>2</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Z6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
         <v>-5</v>
       </c>
-      <c r="AB6" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AC6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AD6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
         <v>70</v>
       </c>
-      <c r="AF6" s="1" t="b">
+      <c r="AG6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -3481,99 +3537,100 @@
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
-      <c r="BR6" s="1">
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1">
         <v>2</v>
       </c>
-      <c r="BS6" s="1"/>
-      <c r="BT6" s="1" t="s">
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BU6" s="1">
+      <c r="BV6" s="1">
         <v>2</v>
       </c>
-      <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
       <c r="BX6" s="1"/>
       <c r="BY6" s="1"/>
-      <c r="BZ6" s="1" t="s">
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="CA6" s="1">
+      <c r="CB6" s="1">
         <v>2</v>
       </c>
-      <c r="CB6" s="1">
+      <c r="CC6" s="1">
         <v>-20</v>
       </c>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="6" t="s">
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="CE6" s="1">
+      <c r="CF6" s="1">
         <v>2</v>
       </c>
-      <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
-      <c r="CJ6" s="1" t="s">
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="CK6" s="1">
+      <c r="CL6" s="1">
         <v>2</v>
       </c>
-      <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
-      <c r="CP6" s="1" t="s">
+      <c r="CP6" s="1"/>
+      <c r="CQ6" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CQ6" s="1">
+      <c r="CR6" s="1">
         <v>2</v>
       </c>
-      <c r="CR6" s="1"/>
       <c r="CS6" s="1"/>
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
-      <c r="CV6" s="1" t="s">
+      <c r="CV6" s="1"/>
+      <c r="CW6" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CW6" s="1">
+      <c r="CX6" s="1">
         <v>2</v>
       </c>
-      <c r="CX6" s="1"/>
       <c r="CY6" s="1"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1"/>
-      <c r="DB6" s="1" t="s">
+      <c r="DB6" s="1"/>
+      <c r="DC6" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="DC6" s="1">
+      <c r="DD6" s="1">
         <v>2</v>
       </c>
-      <c r="DD6" s="1"/>
       <c r="DE6" s="1"/>
       <c r="DF6" s="1"/>
       <c r="DG6" s="1"/>
-      <c r="DH6" s="1" t="s">
+      <c r="DH6" s="1"/>
+      <c r="DI6" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DI6" s="1"/>
-      <c r="DJ6" s="1">
+      <c r="DJ6" s="1"/>
+      <c r="DK6" s="1">
         <v>3</v>
       </c>
-      <c r="DK6" s="1"/>
-      <c r="DL6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM6" s="1" t="s">
+      <c r="DL6" s="1"/>
+      <c r="DM6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN6" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="DN6" s="1"/>
       <c r="DO6" s="1"/>
       <c r="DP6" s="1"/>
+      <c r="DQ6" s="1"/>
     </row>
-    <row r="7" spans="1:120" ht="29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:121" ht="29">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -3583,87 +3640,89 @@
       <c r="C7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>12345</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>54321</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="P7" s="1" t="b">
+      <c r="Q7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1">
         <v>-5</v>
       </c>
-      <c r="S7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="T7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <v>-5</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>-4</v>
       </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="1">
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="1">
         <v>2</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Z7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
         <v>-5</v>
       </c>
-      <c r="AB7" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AC7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AD7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
         <v>70</v>
       </c>
-      <c r="AF7" s="1" t="b">
+      <c r="AG7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -3708,14 +3767,14 @@
       <c r="BW7" s="1"/>
       <c r="BX7" s="1"/>
       <c r="BY7" s="1"/>
-      <c r="BZ7" s="1" t="s">
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CA7" s="1"/>
       <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
-      <c r="CD7" s="6"/>
-      <c r="CE7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="6"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
@@ -3753,6 +3812,7 @@
       <c r="DN7" s="1"/>
       <c r="DO7" s="1"/>
       <c r="DP7" s="1"/>
+      <c r="DQ7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3763,15 +3823,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:DP5"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="17.3984375" style="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" s="5" customFormat="1" ht="43.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3781,373 +3844,380 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:120" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:121" s="7" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>373</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>126</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4155,42 +4225,40 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>128</v>
@@ -4198,242 +4266,245 @@
       <c r="AD2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>150</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BI2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="BN2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1" t="s">
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1" t="s">
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="CI2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="CO2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="CU2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="DA2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="DH2" s="1"/>
+      <c r="DH2" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="DI2" s="1"/>
-      <c r="DJ2" s="1" t="s">
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="DK2" s="1"/>
-      <c r="DL2" s="1" t="s">
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DP2" s="1"/>
+      <c r="DP2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DQ2" s="1"/>
     </row>
-    <row r="3" spans="1:120" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>179</v>
       </c>
@@ -4443,359 +4514,362 @@
       <c r="C3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:120" s="5" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121" s="5" customFormat="1" ht="48.5" customHeight="1">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -4803,13 +4877,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="15">
+      <c r="D4" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="15">
         <v>1016</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4824,12 +4900,12 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1" t="s">
+      <c r="W4" s="1"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -4885,8 +4961,8 @@
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="6"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
@@ -4924,8 +5000,9 @@
       <c r="DN4" s="1"/>
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
     </row>
-    <row r="5" spans="1:120" s="5" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121" s="5" customFormat="1" ht="48.5" customHeight="1">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -4933,13 +5010,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="15">
+      <c r="D5" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="15">
         <v>1016</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4954,12 +5033,12 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="s">
+      <c r="W5" s="1"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -5015,8 +5094,8 @@
       <c r="CA5" s="1"/>
       <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
-      <c r="CD5" s="6"/>
-      <c r="CE5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="6"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
@@ -5054,6 +5133,7 @@
       <c r="DN5" s="1"/>
       <c r="DO5" s="1"/>
       <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658D121-E81C-4046-8A88-D771BE7C2EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB0933-7172-47B2-B361-F7F2EE682E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="690" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1742,8 +1742,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:DQ7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3825,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -1,28 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB0933-7172-47B2-B361-F7F2EE682E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB24F694-8C5F-4B1D-970D-A2FDAAD15FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="690" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
     <sheet name="update" sheetId="4" r:id="rId3"/>
+    <sheet name="清單" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">report!$A$1:$DQ$4</definedName>
+    <definedName name="二林鎮">清單!$D$11</definedName>
+    <definedName name="士林區">清單!$D$3</definedName>
+    <definedName name="中壢區">清單!$D$4</definedName>
+    <definedName name="六甲區">清單!$D$6</definedName>
+    <definedName name="台中市">清單!$C$5</definedName>
+    <definedName name="台北市">清單!$C$3</definedName>
+    <definedName name="台東縣">清單!$C$16</definedName>
+    <definedName name="台南市">清單!$C$6</definedName>
+    <definedName name="安樂區">清單!$D$19</definedName>
+    <definedName name="竹北市">清單!$D$9</definedName>
+    <definedName name="竹田鄉">清單!$D$15</definedName>
+    <definedName name="西_區">清單!$D$21</definedName>
+    <definedName name="宜蘭縣">清單!$C$8</definedName>
+    <definedName name="東引鄉">清單!$D$23</definedName>
+    <definedName name="板橋區">清單!$D$2</definedName>
+    <definedName name="林內鄉">清單!$D$13</definedName>
+    <definedName name="花蓮縣">清單!$C$17</definedName>
+    <definedName name="金門縣">清單!$C$22</definedName>
+    <definedName name="金城鎮">清單!$D$22</definedName>
+    <definedName name="南投縣">清單!$C$12</definedName>
+    <definedName name="屏東縣">清單!$C$15</definedName>
+    <definedName name="美濃區">清單!$D$7</definedName>
+    <definedName name="苑裡鎮">清單!$D$10</definedName>
+    <definedName name="苗栗縣">清單!$C$10</definedName>
+    <definedName name="香山區">清單!$D$20</definedName>
+    <definedName name="桃園市">清單!$C$4</definedName>
+    <definedName name="烏日區">清單!$D$5</definedName>
+    <definedName name="馬公市">清單!$D$18</definedName>
+    <definedName name="高雄市">清單!$C$7</definedName>
+    <definedName name="基隆市">清單!$C$19</definedName>
+    <definedName name="梅山鄉">清單!$D$14</definedName>
+    <definedName name="連江縣">清單!$C$23</definedName>
+    <definedName name="魚池鄉">清單!$D$12</definedName>
+    <definedName name="富里鄉">清單!$D$17</definedName>
+    <definedName name="雲林縣">清單!$C$13</definedName>
+    <definedName name="新北市">清單!$C$2</definedName>
+    <definedName name="新竹市">清單!$C$20</definedName>
+    <definedName name="新竹縣">清單!$C$9</definedName>
+    <definedName name="嘉義市">清單!$C$21</definedName>
+    <definedName name="嘉義縣">清單!$C$14</definedName>
+    <definedName name="彰化縣">清單!$C$11</definedName>
+    <definedName name="澎湖縣">清單!$C$18</definedName>
+    <definedName name="羅東鎮">清單!$D$8</definedName>
+    <definedName name="蘭嶼鄉">清單!$D$16</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="551">
   <si>
     <t>User</t>
   </si>
@@ -424,9 +472,6 @@
 1: 肺內結核病
 2: 肺外結核病
 3: 肺內外合併結核病</t>
-  </si>
-  <si>
-    <t>前者為2或3時 此項為必填</t>
   </si>
   <si>
     <t>輸入1~3
@@ -454,19 +499,9 @@
 需填寫</t>
   </si>
   <si>
-    <t>旅遊史: 2
-需填寫
-英文代號+(空格)+中文名稱</t>
-  </si>
-  <si>
     <t>以現在日期+-N日/
 旅遊史: 2
 需填寫</t>
-  </si>
-  <si>
-    <t>旅遊史: 3
-需填寫
-英文代號+(空格)+中文名稱</t>
   </si>
   <si>
     <t>以現在日期+-N日/
@@ -1001,9 +1036,6 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>同診斷單位 診斷日</t>
-  </si>
-  <si>
     <t>010</t>
   </si>
   <si>
@@ -1025,9 +1057,6 @@
     <t>新竹市</t>
   </si>
   <si>
-    <t>香山區</t>
-  </si>
-  <si>
     <t>咽喉結核(000)</t>
   </si>
   <si>
@@ -1058,12 +1087,6 @@
     <t>NTM</t>
   </si>
   <si>
-    <t>鳥</t>
-  </si>
-  <si>
-    <t>全測試+自填診斷單位 診斷日</t>
-  </si>
-  <si>
     <t>泌尿及生殖系統結核(016)</t>
   </si>
   <si>
@@ -1073,30 +1096,9 @@
     <t>台中市</t>
   </si>
   <si>
-    <t>USA 美國</t>
-  </si>
-  <si>
-    <t>GBR 英國</t>
-  </si>
-  <si>
-    <t>OTH 其他</t>
-  </si>
-  <si>
-    <t>測試國家</t>
-  </si>
-  <si>
     <t>其他</t>
   </si>
   <si>
-    <t>測試身分</t>
-  </si>
-  <si>
-    <t>虎山里</t>
-  </si>
-  <si>
-    <t>測試地址</t>
-  </si>
-  <si>
     <t>護理之家</t>
   </si>
   <si>
@@ -1106,27 +1108,15 @@
     <t>新北市</t>
   </si>
   <si>
-    <t>醫院</t>
-  </si>
-  <si>
-    <t>測試</t>
-  </si>
-  <si>
     <t>正常</t>
   </si>
   <si>
     <t>台北市</t>
   </si>
   <si>
-    <t>診所</t>
-  </si>
-  <si>
     <t>血液</t>
   </si>
   <si>
-    <t>衛生所</t>
-  </si>
-  <si>
     <t>排除</t>
   </si>
   <si>
@@ -1143,89 +1133,6 @@
   </si>
   <si>
     <t>無法判定</t>
-  </si>
-  <si>
-    <t>犬</t>
-  </si>
-  <si>
-    <t>登記類別未填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢體種類有填時 檢體編號未填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>結核病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試醫師</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z987654321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>民國70/06/02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新竹市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>香山區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>異常，且有空洞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>確定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陰性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陽性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>痰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>預期</t>
@@ -1240,26 +1147,753 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>國家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接觸動物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫護及其他醫事人員</t>
+  </si>
+  <si>
+    <t>AFG 阿富汗</t>
+  </si>
+  <si>
+    <t>羊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALB 阿爾巴尼亞</t>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>照服員或個人健康照顧工作人員</t>
+  </si>
+  <si>
+    <t>桃園市</t>
+  </si>
+  <si>
+    <t>ATA 南極洲</t>
+  </si>
+  <si>
+    <t>馬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保母或兒童照顧工作人員</t>
+  </si>
+  <si>
+    <t>DZA 阿爾及利亞</t>
+  </si>
+  <si>
+    <t>雞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>實驗室檢驗人員</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>ASM 美屬薩摩亞(東薩摩亞)</t>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>獸醫師</t>
+  </si>
+  <si>
+    <t>AND 安道爾(安道拉)</t>
+  </si>
+  <si>
+    <t>猿猴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>農業人員</t>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+  </si>
+  <si>
+    <t>AGO 安哥拉</t>
+  </si>
+  <si>
+    <t>犬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>畜牧業人員</t>
+  </si>
+  <si>
+    <t>新竹縣</t>
+  </si>
+  <si>
+    <t>ATG 安地卡及巴布達 / 安提瓜和巴布達</t>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林業、漁業人員</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>AZE 亞塞拜然 / 阿塞拜疆</t>
+  </si>
+  <si>
+    <t>鹿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>機師及機組員</t>
+  </si>
+  <si>
+    <t>彰化縣</t>
+  </si>
+  <si>
+    <t>ARG 阿根廷</t>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地勤及機場其他工作人員</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>AUS 澳大利亞(澳洲)</t>
+  </si>
+  <si>
+    <t>鴨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶旅運服務人員</t>
+  </si>
+  <si>
+    <t>雲林縣</t>
+  </si>
+  <si>
+    <t>AUT 奧地利</t>
+  </si>
+  <si>
+    <t>鵝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸上旅運服務人員</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>BHS 巴哈馬</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚師</t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>BHR 巴林</t>
+  </si>
+  <si>
+    <t>鴿子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品製造及加工人員</t>
+  </si>
+  <si>
+    <t>台東縣</t>
+  </si>
+  <si>
+    <t>BGD 孟加拉</t>
+  </si>
+  <si>
+    <t>果子狸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐飲服務人員</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>ARM 亞美尼亞 / 阿美尼亞</t>
+  </si>
+  <si>
+    <t>水產動物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師及教務專業人員</t>
+  </si>
+  <si>
+    <t>澎湖縣</t>
+  </si>
+  <si>
+    <t>BRB 巴貝多 / 巴巴多斯</t>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆市</t>
+  </si>
+  <si>
+    <t>BEL 比利時</t>
+  </si>
+  <si>
+    <t>軍人/軍校生</t>
+  </si>
+  <si>
+    <t>BMU 百慕達(薩默斯)</t>
+  </si>
+  <si>
+    <t>人口密集機構受照顧人員</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+  <si>
+    <t>BTN 不丹</t>
+  </si>
+  <si>
+    <t>矯正機關戒護人員或收容人</t>
+  </si>
+  <si>
+    <t>金門縣</t>
+  </si>
+  <si>
+    <t>BOL 玻利維亞</t>
+  </si>
+  <si>
+    <t>防疫旅宿相關工作人員</t>
+  </si>
+  <si>
+    <t>連江縣</t>
+  </si>
+  <si>
+    <t>BIH 波士尼亞與赫塞哥維納(波赫) / 波斯尼亞和黑塞哥維那(波黑)</t>
+  </si>
+  <si>
+    <t>集中檢疫所相關工作人員</t>
+  </si>
+  <si>
+    <t>BWA 波札那 / 博茨瓦納</t>
+  </si>
+  <si>
+    <t>防疫車隊相關工作人員</t>
+  </si>
+  <si>
+    <t>BVT 布威島 / 鮑威特島</t>
+  </si>
+  <si>
+    <t>各行業主管及經理人員、民意代表</t>
+  </si>
+  <si>
+    <t>BRA 巴西</t>
+  </si>
+  <si>
+    <t>科學及工程專業人員</t>
+  </si>
+  <si>
+    <t>BLZ 貝里斯 / 伯利茲</t>
+  </si>
+  <si>
+    <t>商業及行政專業人員</t>
+  </si>
+  <si>
+    <t>IOT 英屬印度洋領地</t>
+  </si>
+  <si>
+    <t>資訊及通訊專業人員</t>
+  </si>
+  <si>
+    <t>SLB 索羅門群島 / 所羅門群島</t>
+  </si>
+  <si>
+    <t>法律、社會及文化專業人員</t>
+  </si>
+  <si>
+    <t>VGB 英屬維京群島 / 英屬處女群島</t>
+  </si>
+  <si>
+    <t>辦公室事務支援人員</t>
+  </si>
+  <si>
+    <t>BRN 汶萊(文萊)</t>
+  </si>
+  <si>
+    <t>服務及銷售工作人員</t>
+  </si>
+  <si>
+    <t>BGR 保加利亞</t>
+  </si>
+  <si>
+    <t>技藝工作、機械設備操作及組裝人員</t>
+  </si>
+  <si>
+    <t>MMR 緬甸</t>
+  </si>
+  <si>
+    <t>家管</t>
+  </si>
+  <si>
+    <t>OTH 其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>無業</t>
+  </si>
+  <si>
+    <t>不詳</t>
+  </si>
+  <si>
+    <t>單位類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>診所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核菌腦膜炎(013)</t>
+  </si>
+  <si>
+    <t>淋巴結核(014)</t>
+  </si>
+  <si>
+    <t>骨及關節結核(015)</t>
+  </si>
+  <si>
+    <t>皮膚及眼結核(017)</t>
+  </si>
+  <si>
+    <t>消化道結核(014)</t>
+  </si>
+  <si>
+    <t>其他器官結核(017)</t>
+  </si>
+  <si>
+    <t>粟粒狀結核(018)</t>
+  </si>
+  <si>
+    <t>胸肋膜結核(000)</t>
+  </si>
+  <si>
+    <t>膀胱癌灌注治療(泌尿系統結核)</t>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位局部病灶)</t>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位同側腋下淋巴結腫大)</t>
+  </si>
+  <si>
+    <t>非本國籍居民身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外籍勞工</t>
+  </si>
+  <si>
+    <t>外籍人士</t>
+  </si>
+  <si>
+    <t>外籍配偶</t>
+  </si>
+  <si>
+    <t>大陸人士</t>
+  </si>
+  <si>
+    <t>大陸配偶</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>機構類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻狀況</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮譽國民之家</t>
+  </si>
+  <si>
+    <t>身心障礙福利</t>
+  </si>
+  <si>
+    <t>托嬰中心</t>
+  </si>
+  <si>
+    <t>康復之家</t>
+  </si>
+  <si>
+    <t>少年福利</t>
+  </si>
+  <si>
+    <t>矯正機關</t>
+  </si>
+  <si>
+    <t>育幼院</t>
+  </si>
+  <si>
+    <t>收容或暫置中心</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>喪偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>離婚</t>
+  </si>
+  <si>
+    <t>分居</t>
+  </si>
+  <si>
+    <t>X光診斷結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常，但無空洞</t>
+  </si>
+  <si>
+    <t>異常，無關結核病</t>
+  </si>
+  <si>
+    <t>衛生局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛生所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管制所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰</t>
+  </si>
+  <si>
+    <t>腦脊髓液</t>
+  </si>
+  <si>
+    <t>氣管洗出液</t>
+  </si>
+  <si>
+    <t>陽性培養菌株</t>
+  </si>
+  <si>
+    <t>病理切片</t>
+  </si>
+  <si>
+    <t>消化去污染後痰</t>
+  </si>
+  <si>
+    <t>疑似</t>
+  </si>
+  <si>
+    <t>已驗未出</t>
+  </si>
+  <si>
+    <t>陽性2+</t>
+  </si>
+  <si>
+    <t>陽性3+</t>
+  </si>
+  <si>
+    <t>陽性4+</t>
+  </si>
+  <si>
+    <t>Scanty</t>
+  </si>
+  <si>
+    <t>未檢</t>
+  </si>
+  <si>
+    <t>MTBC陰性</t>
+  </si>
+  <si>
+    <t>MTBC</t>
+  </si>
+  <si>
+    <t>居住縣市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>板橋區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自強里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>士林區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百齡里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壢區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁愛里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏日區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>六甲區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爺里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美濃區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東門里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹林里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹北市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿場里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苑裡鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西平里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二林鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚池鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大林村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林內鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林北村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅山鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹田鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二崙村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭嶼鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅頭村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富里鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明里村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬公市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東文里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安樂區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三民里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海山里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西　區</t>
+  </si>
+  <si>
+    <t>培元里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北門里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東引鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂華村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前項為2或3時 此項為必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅遊史: 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅遊史: 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>黃色為必填項目/結核病編修會擋住</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>True</t>
+    <t>富里鄉</t>
+  </si>
+  <si>
+    <t>明里村</t>
+  </si>
+  <si>
+    <t>東引鄉</t>
+  </si>
+  <si>
+    <t>樂華村</t>
+  </si>
+  <si>
+    <t>肺外依據</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增修限制</t>
+    <t>肺外依據未填</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,13 +1915,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -1300,6 +1927,20 @@
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1350,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1377,28 +2018,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1407,10 +2042,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1740,79 +2384,81 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:DQ7"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.796875" style="13" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="18.5" style="13" customWidth="1"/>
-    <col min="25" max="25" width="17.8984375" style="13" customWidth="1"/>
-    <col min="26" max="26" width="18.5" style="13" customWidth="1"/>
-    <col min="27" max="27" width="30.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="30.8984375" style="13" customWidth="1"/>
-    <col min="34" max="34" width="26.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.3984375" style="13" customWidth="1"/>
-    <col min="37" max="37" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.3984375" style="13" customWidth="1"/>
-    <col min="40" max="40" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.09765625" style="13" customWidth="1"/>
-    <col min="43" max="43" width="28.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26" style="13" bestFit="1" customWidth="1"/>
-    <col min="46" max="51" width="26" style="13" customWidth="1"/>
-    <col min="52" max="53" width="9.59765625" style="13" customWidth="1"/>
-    <col min="54" max="54" width="16.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="22.19921875" style="13" customWidth="1"/>
-    <col min="61" max="61" width="27.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="33.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="22.19921875" style="13" customWidth="1"/>
-    <col min="65" max="65" width="32.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="32.59765625" style="13" customWidth="1"/>
-    <col min="68" max="68" width="32.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="23.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="71" max="115" width="23.59765625" style="13" customWidth="1"/>
-    <col min="116" max="116" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="32.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="32.3984375" style="13" customWidth="1"/>
-    <col min="121" max="121" width="10.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="8.796875" style="13" customWidth="1"/>
-    <col min="124" max="16384" width="8.796875" style="13"/>
+    <col min="1" max="2" width="8.796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" style="20"/>
+    <col min="18" max="18" width="9.59765625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="14.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.796875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.5" style="11" customWidth="1"/>
+    <col min="27" max="27" width="23.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.8984375" style="11" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="11" customWidth="1"/>
+    <col min="30" max="30" width="30.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="30.8984375" style="11" customWidth="1"/>
+    <col min="37" max="37" width="26.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.3984375" style="11" customWidth="1"/>
+    <col min="40" max="40" width="28.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.3984375" style="11" customWidth="1"/>
+    <col min="43" max="43" width="28.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.09765625" style="11" customWidth="1"/>
+    <col min="46" max="46" width="28.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="53" width="26" style="11" customWidth="1"/>
+    <col min="54" max="54" width="9.59765625" style="11" customWidth="1"/>
+    <col min="55" max="55" width="16.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="29.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="22.19921875" style="11" customWidth="1"/>
+    <col min="62" max="62" width="27.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="33.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="22.19921875" style="11" customWidth="1"/>
+    <col min="66" max="66" width="32.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="32.59765625" style="11" customWidth="1"/>
+    <col min="69" max="69" width="32.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="71" max="115" width="23.59765625" style="11" customWidth="1"/>
+    <col min="116" max="116" width="31" style="11" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="32.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="32.3984375" style="11" customWidth="1"/>
+    <col min="121" max="121" width="10.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="8.796875" style="11" customWidth="1"/>
+    <col min="124" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="18" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1821,10 +2467,10 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1860,167 +2506,167 @@
       <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
         <v>75</v>
@@ -2177,11 +2823,11 @@
       </c>
     </row>
     <row r="2" spans="1:121" s="1" customFormat="1" ht="71" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="A2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2189,257 +2835,255 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="13"/>
+      <c r="S2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>134</v>
+      <c r="Z2" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BI2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BQ2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CF2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CJ2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CP2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CT2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DF2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CV2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DK2" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="DB2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DH2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="DM2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>131</v>
@@ -2448,404 +3092,403 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:121" s="18" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="H3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BO3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="DO3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="4" spans="1:121" s="18" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="L4" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="M4" s="1">
         <v>12345</v>
@@ -2853,96 +3496,116 @@
       <c r="N4" s="1">
         <v>54321</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q4" s="1" t="b">
-        <v>0</v>
+      <c r="O4" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>-5</v>
-      </c>
-      <c r="T4" s="1" t="b">
+      <c r="S4" s="13" t="b">
         <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
       </c>
       <c r="U4" s="1">
         <v>-5</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-5</v>
+      </c>
+      <c r="X4" s="1">
         <v>-4</v>
-      </c>
-      <c r="W4" s="1">
-        <v>2</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="Y4" s="1">
         <v>2</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA4" s="1" t="b">
+      <c r="Z4" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="AB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
         <v>-5</v>
       </c>
-      <c r="AC4" s="1" t="b">
+      <c r="AF4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" s="1" t="b">
+      <c r="AG4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AE4" s="1" t="b">
+      <c r="AH4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AI4" s="1">
         <v>70</v>
       </c>
-      <c r="AG4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
+      <c r="AJ4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>2</v>
+      </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AS4" s="1">
+      <c r="AO4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>-10</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>-10</v>
+      </c>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV4" s="1">
         <v>1</v>
       </c>
-      <c r="AT4" s="1" t="b">
+      <c r="AW4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
+      <c r="BB4" s="13"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
+      <c r="BE4" s="1">
+        <v>5</v>
+      </c>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
+      <c r="BI4" s="1">
+        <v>-9</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>-9</v>
+      </c>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1"/>
@@ -2950,15 +3613,13 @@
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
-      <c r="BR4" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="BR4" s="1"/>
       <c r="BS4" s="1">
         <v>2</v>
       </c>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="BV4" s="1">
         <v>2</v>
@@ -2968,7 +3629,7 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
       <c r="CA4" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="CB4" s="1">
         <v>2</v>
@@ -2976,9 +3637,11 @@
       <c r="CC4" s="1">
         <v>-20</v>
       </c>
-      <c r="CD4" s="1"/>
+      <c r="CD4" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="CE4" s="6" t="s">
-        <v>313</v>
+        <v>542</v>
       </c>
       <c r="CF4" s="1">
         <v>2</v>
@@ -2988,7 +3651,7 @@
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="CL4" s="1">
         <v>2</v>
@@ -2998,7 +3661,7 @@
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="CR4" s="1">
         <v>2</v>
@@ -3008,7 +3671,7 @@
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="CX4" s="1">
         <v>2</v>
@@ -3018,7 +3681,7 @@
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="DD4" s="1">
         <v>2</v>
@@ -3028,63 +3691,55 @@
       <c r="DG4" s="1"/>
       <c r="DH4" s="1"/>
       <c r="DI4" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="DK4" s="1">
-        <v>1</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="DK4" s="1"/>
       <c r="DL4" s="1"/>
-      <c r="DM4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="DO4" s="1">
-        <v>-30</v>
-      </c>
-      <c r="DP4" s="1">
-        <v>-12</v>
-      </c>
+      <c r="DM4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+      <c r="DP4" s="1"/>
       <c r="DQ4" s="1"/>
     </row>
-    <row r="5" spans="1:121" s="18" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A5" s="13">
+    <row r="5" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="1">
+        <v>550</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="L5" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="M5" s="1">
         <v>12345</v>
@@ -3092,750 +3747,318 @@
       <c r="N5" s="1">
         <v>54321</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>-5</v>
-      </c>
-      <c r="T5" s="1" t="b">
+      <c r="O5" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="T5" s="1"/>
       <c r="U5" s="1">
         <v>-5</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-5</v>
+      </c>
+      <c r="X5" s="1">
         <v>-4</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
         <v>2</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="AC5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="AE5" s="1">
         <v>-5</v>
       </c>
-      <c r="AC5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>90</v>
-      </c>
-      <c r="AG5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>-14</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>-12</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>-14</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>-12</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>-14</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>-12</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="1" t="b">
+      <c r="AF5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="AU5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BA5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>7</v>
-      </c>
+      <c r="AG5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
       <c r="BE5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>-10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="BF5" s="1"/>
       <c r="BG5" s="1">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="BH5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>335</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
-      <c r="BR5" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="BR5" s="1"/>
       <c r="BS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="BV5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>-10</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CE5" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="1">
         <v>2</v>
       </c>
-      <c r="CH5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="CP5" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CQ5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="CR5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CU5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CW5" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="CX5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="DB5" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="DG5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="DH5" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="DI5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="DK5" s="1">
-        <v>2</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="DM5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="DO5" s="1">
-        <v>-20</v>
-      </c>
-      <c r="DP5" s="1">
-        <v>-18</v>
-      </c>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="13"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
       <c r="DQ5" s="1"/>
-    </row>
-    <row r="6" spans="1:121">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M6" s="1">
-        <v>12345</v>
-      </c>
-      <c r="N6" s="1">
-        <v>54321</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>-5</v>
-      </c>
-      <c r="T6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>-5</v>
-      </c>
-      <c r="V6" s="1">
-        <v>-4</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>-5</v>
-      </c>
-      <c r="AC6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT6" s="1"/>
-      <c r="BU6" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW6" s="1"/>
-      <c r="BX6" s="1"/>
-      <c r="BY6" s="1"/>
-      <c r="BZ6" s="1"/>
-      <c r="CA6" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>-20</v>
-      </c>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>2</v>
-      </c>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="CL6" s="1">
-        <v>2</v>
-      </c>
-      <c r="CM6" s="1"/>
-      <c r="CN6" s="1"/>
-      <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-      <c r="CQ6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="CR6" s="1">
-        <v>2</v>
-      </c>
-      <c r="CS6" s="1"/>
-      <c r="CT6" s="1"/>
-      <c r="CU6" s="1"/>
-      <c r="CV6" s="1"/>
-      <c r="CW6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="CX6" s="1">
-        <v>2</v>
-      </c>
-      <c r="CY6" s="1"/>
-      <c r="CZ6" s="1"/>
-      <c r="DA6" s="1"/>
-      <c r="DB6" s="1"/>
-      <c r="DC6" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="DD6" s="1">
-        <v>2</v>
-      </c>
-      <c r="DE6" s="1"/>
-      <c r="DF6" s="1"/>
-      <c r="DG6" s="1"/>
-      <c r="DH6" s="1"/>
-      <c r="DI6" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="DJ6" s="1"/>
-      <c r="DK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DL6" s="1"/>
-      <c r="DM6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="DO6" s="1"/>
-      <c r="DP6" s="1"/>
-      <c r="DQ6" s="1"/>
-    </row>
-    <row r="7" spans="1:121" ht="29">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M7" s="1">
-        <v>12345</v>
-      </c>
-      <c r="N7" s="1">
-        <v>54321</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
-        <v>-5</v>
-      </c>
-      <c r="T7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>-5</v>
-      </c>
-      <c r="V7" s="1">
-        <v>-4</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>-5</v>
-      </c>
-      <c r="AC7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="1"/>
-      <c r="BS7" s="1"/>
-      <c r="BT7" s="1"/>
-      <c r="BU7" s="1"/>
-      <c r="BV7" s="1"/>
-      <c r="BW7" s="1"/>
-      <c r="BX7" s="1"/>
-      <c r="BY7" s="1"/>
-      <c r="BZ7" s="1"/>
-      <c r="CA7" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="6"/>
-      <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
-      <c r="CL7" s="1"/>
-      <c r="CM7" s="1"/>
-      <c r="CN7" s="1"/>
-      <c r="CO7" s="1"/>
-      <c r="CP7" s="1"/>
-      <c r="CQ7" s="1"/>
-      <c r="CR7" s="1"/>
-      <c r="CS7" s="1"/>
-      <c r="CT7" s="1"/>
-      <c r="CU7" s="1"/>
-      <c r="CV7" s="1"/>
-      <c r="CW7" s="1"/>
-      <c r="CX7" s="1"/>
-      <c r="CY7" s="1"/>
-      <c r="CZ7" s="1"/>
-      <c r="DA7" s="1"/>
-      <c r="DB7" s="1"/>
-      <c r="DC7" s="1"/>
-      <c r="DD7" s="1"/>
-      <c r="DE7" s="1"/>
-      <c r="DF7" s="1"/>
-      <c r="DG7" s="1"/>
-      <c r="DH7" s="1"/>
-      <c r="DI7" s="1"/>
-      <c r="DJ7" s="1"/>
-      <c r="DK7" s="1"/>
-      <c r="DL7" s="1"/>
-      <c r="DM7" s="1"/>
-      <c r="DN7" s="1"/>
-      <c r="DO7" s="1"/>
-      <c r="DP7" s="1"/>
-      <c r="DQ7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{738CABBD-1BC6-4573-8D9B-E4AB2F6F63EA}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{85D0BF4B-E851-46AA-8BD6-699AA0AD7D92}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{47C05472-E71E-4CA6-B109-B157B52AA2DC}">
+      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5" xr:uid="{F9EFE154-9FD1-4DD6-9F6F-1ECD74F5E124}">
+      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AD4:AD5 AF4:AH5 AJ4:AJ5 BB4:BB5 AW4:AW5 AA4:AA5 DM4:DM5" xr:uid="{A6BE7EF8-0CC7-4BB5-8D52-5EC97F60A7A9}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y5 AB4:AB5 AK4:AK5 AV4:AV5" xr:uid="{9E78BD39-4517-4E9B-A3E0-2F8AB0A2F778}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{E3CC4E2B-0C5B-472C-A5F1-B3902EC19253}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5 BS4:BS5 BV4:BW5 CB4:CB5 CF4:CG5 CL4:CM5 CR4:CS5 CX4:CY5 DD4:DE5" xr:uid="{E2E8CCA3-40B4-4F05-94FC-9263C866A08E}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4:DK5" xr:uid="{5725F216-A39C-48F5-89F3-8D4525EBF377}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{7CE7155D-F896-4905-BBA4-692202C9BB2C}">
+      <formula1>INDIRECT(O4)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C8528D2-EB1A-48B2-8B43-203731984A1F}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>O4:O5 BN4:BN5 CI4:CI5 CO4:CO5 CU4:CU5 DA4:DA5 DG4:DG5 AL4:AL5 BY4:BY5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A1B8001-8D98-4413-BE0D-7C74C8E0B321}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC4:AC5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA31B608-6076-4629-8EBC-FEC41C808E43}">
+          <x14:formula1>
+            <xm:f>清單!$F$2:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>DN4:DN5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D0106B4-EC06-4345-B479-586520D2ABD8}">
+          <x14:formula1>
+            <xm:f>清單!$H$2:$H$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z4:AA5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9474F82-EF30-4803-9BF7-CF703C484083}">
+          <x14:formula1>
+            <xm:f>清單!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86BF28A5-51AB-4E0E-AA7C-61356416FCA9}">
+          <x14:formula1>
+            <xm:f>清單!$J$2:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>BC4:BC5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{273798BE-546A-4BE2-B474-1423BB364237}">
+          <x14:formula1>
+            <xm:f>清單!$K$2:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BD4:BD5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4AB0AC7-6C4F-4A15-9B14-A0DD1AFD31AB}">
+          <x14:formula1>
+            <xm:f>清單!$L$2:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>BU4:BU5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BFCAE96-5B6C-4C99-BA86-2B28DFA01A0A}">
+          <x14:formula1>
+            <xm:f>清單!$M$2:$M$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>CA4:CA5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BA8BEE0-9F25-4002-95E2-F021B7D1838B}">
+          <x14:formula1>
+            <xm:f>清單!$G$5:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BO4:BO5 BZ4:BZ5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB4F9CB-C4C6-4BA9-A946-4D89FF6127FA}">
+          <x14:formula1>
+            <xm:f>清單!$O$2:$O$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>CQ4:CQ5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45A8106E-0690-4E45-B840-B8F0AF474DA2}">
+          <x14:formula1>
+            <xm:f>清單!$N$2:$N$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>CK4:CK5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4003CD0-27D8-46C0-ABA8-4F9223852BE9}">
+          <x14:formula1>
+            <xm:f>清單!$Q$2:$Q$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>DC4:DC5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FA38D5C-5E28-43F5-8F73-C974579BC0DE}">
+          <x14:formula1>
+            <xm:f>清單!$R$2:$R$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>DI4:DI5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED3F8C50-A8B5-471B-B58B-1CB6CFEBB09F}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AO4:AO5 AR4:AR5 AX4:AX5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9E30851-7F75-47B5-AE6D-9994F550371A}">
+          <x14:formula1>
+            <xm:f>清單!$P$2:$P$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>CW4:CW5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:DQ5"/>
+  <dimension ref="A1:DQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="17.3984375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="5" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3844,10 +4067,10 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3883,167 +4106,167 @@
       <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
         <v>75</v>
@@ -4200,22 +4423,20 @@
       </c>
     </row>
     <row r="2" spans="1:121" s="7" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>373</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="22" t="s">
         <v>126</v>
       </c>
       <c r="I2" s="1"/>
@@ -4226,275 +4447,275 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="AA2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BI2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="BU2" s="1"/>
       <c r="BV2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BW2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="BZ2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="CA2" s="1"/>
       <c r="CB2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CE2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="CJ2" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="CQ2" s="1"/>
       <c r="CR2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="CW2" s="1"/>
       <c r="CX2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="DH2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="DI2" s="1"/>
       <c r="DJ2" s="1"/>
       <c r="DK2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="DL2" s="1"/>
       <c r="DM2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>131</v>
@@ -4505,417 +4726,417 @@
       <c r="DQ2" s="1"/>
     </row>
     <row r="3" spans="1:121" s="9" customFormat="1" ht="87" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="H3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BO3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="DO3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="4" spans="1:121" s="5" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A4" s="13">
+    <row r="4" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1016</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1114</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="13"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="6"/>
+      <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA4" s="1"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="13"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AC4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD4" s="13"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
+      <c r="AJ4" s="13"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -4928,12 +5149,12 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AW4" s="13"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
+      <c r="BB4" s="13"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
@@ -4996,148 +5217,1064 @@
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
       <c r="DL4" s="1"/>
-      <c r="DM4" s="1"/>
+      <c r="DM4" s="13"/>
       <c r="DN4" s="1"/>
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
       <c r="DQ4" s="1"/>
     </row>
-    <row r="5" spans="1:121" s="5" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="17" t="s">
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4" xr:uid="{DB89FF09-3C25-4240-9AF6-DFF24EBDA775}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4 BS4 BV4:BW4 CB4 CF4:CG4 CL4:CM4 CR4:CS4 CX4:CY4 DD4:DE4" xr:uid="{AC41017A-C11F-4A98-86F4-D19ACC737BF0}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{736E25C1-41A7-42F1-9E0A-429F872053BD}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4 AB4 AK4 AV4" xr:uid="{A5A2B422-312E-4CF8-8E61-C19D02947BC3}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AD4 AF4:AH4 AJ4 BB4 AW4 AA4 DM4" xr:uid="{5372353E-3D10-4759-BC9C-3A5EB4F4CE1E}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{BCF9837D-7C5C-4B97-B009-54AA57CB9E3C}">
+      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{5DF44BA0-66E1-48D8-8CFA-54D965F28151}">
+      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{2E362D76-B0C9-4DE0-9085-1D078F6B2D51}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{BBDC52DA-E206-44DA-AB23-8E79CB5DA317}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{65F58D99-0679-4E3C-9559-1C54A1D636DD}">
+      <formula1>INDIRECT(O4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{E2FA36E9-9A0B-49F2-AD60-B432ECA38634}">
+      <formula1>INDIRECT(P4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7339176F-129E-4E0A-9F93-8B504B7B71DC}">
+          <x14:formula1>
+            <xm:f>清單!$N$2:$N$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>CK4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A3589C6C-AB1A-4A86-AD30-578C8D06133F}">
+          <x14:formula1>
+            <xm:f>清單!$L$2:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>BU4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{092C0BD0-5B1B-46C9-9FAB-41089E3CA740}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2B32895-3316-4335-A9F2-88878BAA17CA}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>O4 BN4 CI4 CO4 CU4 DA4 DG4 AL4 BY4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88C4A0FE-C561-4AB3-B74B-719FF5C75E8D}">
+          <x14:formula1>
+            <xm:f>清單!$P$2:$P$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>CW4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65EEE7B4-75B6-4609-88F1-880022C3D59F}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AO4 AR4 AX4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{374C5745-9D26-4CAD-B61F-F3DBBD249C23}">
+          <x14:formula1>
+            <xm:f>清單!$R$2:$R$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>DI4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{33E38789-5623-4771-A04C-376A5D2C7DEF}">
+          <x14:formula1>
+            <xm:f>清單!$Q$2:$Q$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>DC4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B0A0CE9-2BFB-4ADE-96E1-66C30C3B5771}">
+          <x14:formula1>
+            <xm:f>清單!$O$2:$O$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>CQ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01E61EE6-7D67-4F37-A222-F17E2E200FAC}">
+          <x14:formula1>
+            <xm:f>清單!$G$5:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BO4 BZ4 CJ4 CP4 CV4 DB4 DH4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D445D67-7C48-4B4A-93C9-9C67BA026510}">
+          <x14:formula1>
+            <xm:f>清單!$M$2:$M$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>CA4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFBE8AB1-6C42-44F1-8B50-F6571254629A}">
+          <x14:formula1>
+            <xm:f>清單!$K$2:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BD4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98D63DA1-A621-4EA3-BCB4-7A5A1A28826A}">
+          <x14:formula1>
+            <xm:f>清單!$J$2:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>BC4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{360BB425-9AFE-4C17-B56B-BD5491BF7455}">
+          <x14:formula1>
+            <xm:f>清單!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AZ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3479BD86-2A2D-499C-AB65-965DAD6CFEAD}">
+          <x14:formula1>
+            <xm:f>清單!$H$2:$H$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z4:AA4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6F0895B-71D0-4911-B72B-F8128BA040DF}">
+          <x14:formula1>
+            <xm:f>清單!$F$2:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>DN4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9876E0E3-B33D-4304-86CE-5F9B37681B55}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.5">
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" t="s">
+        <v>322</v>
+      </c>
+      <c r="N2" t="s">
+        <v>483</v>
+      </c>
+      <c r="O2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="H3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M3" t="s">
+        <v>477</v>
+      </c>
+      <c r="N3" t="s">
+        <v>484</v>
+      </c>
+      <c r="O3" t="s">
+        <v>485</v>
+      </c>
+      <c r="P3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="H4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" t="s">
+        <v>453</v>
+      </c>
+      <c r="J4" t="s">
+        <v>460</v>
+      </c>
+      <c r="K4" t="s">
+        <v>468</v>
+      </c>
+      <c r="L4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" t="s">
+        <v>478</v>
+      </c>
+      <c r="N4" t="s">
+        <v>323</v>
+      </c>
+      <c r="O4" t="s">
+        <v>486</v>
+      </c>
+      <c r="P4" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>484</v>
+      </c>
+      <c r="R4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J5" t="s">
+        <v>461</v>
+      </c>
+      <c r="K5" t="s">
+        <v>469</v>
+      </c>
+      <c r="L5" t="s">
+        <v>473</v>
+      </c>
+      <c r="M5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N5" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" t="s">
+        <v>487</v>
+      </c>
+      <c r="P5" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>327</v>
+      </c>
+      <c r="R5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J6" t="s">
+        <v>462</v>
+      </c>
+      <c r="K6" t="s">
+        <v>456</v>
+      </c>
+      <c r="M6" t="s">
+        <v>479</v>
+      </c>
+      <c r="O6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>326</v>
+      </c>
+      <c r="R6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M7" t="s">
+        <v>480</v>
+      </c>
+      <c r="O7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8" t="s">
+        <v>481</v>
+      </c>
+      <c r="O8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" t="s">
+        <v>445</v>
+      </c>
+      <c r="J9" t="s">
+        <v>465</v>
+      </c>
+      <c r="M9" t="s">
+        <v>482</v>
+      </c>
+      <c r="O9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="H10" t="s">
+        <v>446</v>
+      </c>
+      <c r="J10" t="s">
+        <v>466</v>
+      </c>
+      <c r="M10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="E5" s="15">
-        <v>1016</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
-      <c r="CL5" s="1"/>
-      <c r="CM5" s="1"/>
-      <c r="CN5" s="1"/>
-      <c r="CO5" s="1"/>
-      <c r="CP5" s="1"/>
-      <c r="CQ5" s="1"/>
-      <c r="CR5" s="1"/>
-      <c r="CS5" s="1"/>
-      <c r="CT5" s="1"/>
-      <c r="CU5" s="1"/>
-      <c r="CV5" s="1"/>
-      <c r="CW5" s="1"/>
-      <c r="CX5" s="1"/>
-      <c r="CY5" s="1"/>
-      <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
-      <c r="DB5" s="1"/>
-      <c r="DC5" s="1"/>
-      <c r="DD5" s="1"/>
-      <c r="DE5" s="1"/>
-      <c r="DF5" s="1"/>
-      <c r="DG5" s="1"/>
-      <c r="DH5" s="1"/>
-      <c r="DI5" s="1"/>
-      <c r="DJ5" s="1"/>
-      <c r="DK5" s="1"/>
-      <c r="DL5" s="1"/>
-      <c r="DM5" s="1"/>
-      <c r="DN5" s="1"/>
-      <c r="DO5" s="1"/>
-      <c r="DP5" s="1"/>
-      <c r="DQ5" s="1"/>
+      <c r="H12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="H14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB24F694-8C5F-4B1D-970D-A2FDAAD15FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125F6FD-DA08-429A-8FAB-1F14D2A0DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="552">
   <si>
     <t>User</t>
   </si>
@@ -481,13 +481,6 @@
   </si>
   <si>
     <t>前項為TRUE 此項為必填</t>
-  </si>
-  <si>
-    <t>前者為TRUE需填寫 可複選
-輸入1~3
-1 國內旅遊史
-2 國外旅遊史
-3 國外居住史</t>
   </si>
   <si>
     <t>旅遊史: 1
@@ -1869,12 +1862,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>富里鄉</t>
-  </si>
-  <si>
-    <t>明里村</t>
-  </si>
-  <si>
     <t>東引鄉</t>
   </si>
   <si>
@@ -1885,7 +1872,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>肺外依據未填</t>
+    <t>全測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國籍為FALSE需填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貓</t>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫
+輸入1~3
+1 國內旅遊史
+2 國外旅遊史
+3 國外居住史</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2384,10 +2390,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:DQ5"/>
+  <dimension ref="A1:DQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2468,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>9</v>
@@ -2534,7 +2540,7 @@
         <v>27</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>74</v>
@@ -2825,7 +2831,7 @@
     <row r="2" spans="1:121" s="1" customFormat="1" ht="71" customHeight="1">
       <c r="A2" s="14"/>
       <c r="D2" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>126</v>
@@ -2858,7 +2864,7 @@
         <v>132</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>128</v>
@@ -2885,205 +2891,211 @@
         <v>128</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AW2" s="1" t="s">
-        <v>141</v>
+      <c r="AX2" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="AY2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="BC2" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="BE2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BS2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CM2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CG2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CJ2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CS2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CM2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CP2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CY2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CS2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CV2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CX2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CY2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="DB2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DK2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="DH2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="DM2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>175</v>
+        <v>549</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>131</v>
@@ -3094,367 +3106,367 @@
     </row>
     <row r="3" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
@@ -3464,31 +3476,33 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="D4" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13">
         <v>3</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="M4" s="1">
         <v>12345</v>
@@ -3497,13 +3511,13 @@
         <v>54321</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="13" t="b">
@@ -3528,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA4" s="13" t="b">
         <v>1</v>
@@ -3537,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD4" s="13" t="b">
         <v>1</v>
@@ -3567,7 +3581,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AP4" s="1">
         <v>-10</v>
@@ -3579,21 +3593,31 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AV4" s="1">
         <v>1</v>
       </c>
       <c r="AW4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
+      <c r="BC4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="BE4" s="1">
         <v>5</v>
       </c>
@@ -3619,7 +3643,7 @@
       </c>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BV4" s="1">
         <v>2</v>
@@ -3629,7 +3653,7 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
       <c r="CA4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CB4" s="1">
         <v>2</v>
@@ -3638,10 +3662,10 @@
         <v>-20</v>
       </c>
       <c r="CD4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="CE4" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="CE4" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="CF4" s="1">
         <v>2</v>
@@ -3651,7 +3675,7 @@
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="CL4" s="1">
         <v>2</v>
@@ -3661,7 +3685,7 @@
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="CR4" s="1">
         <v>2</v>
@@ -3671,7 +3695,7 @@
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="CX4" s="1">
         <v>2</v>
@@ -3681,7 +3705,7 @@
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="DD4" s="1">
         <v>2</v>
@@ -3691,249 +3715,60 @@
       <c r="DG4" s="1"/>
       <c r="DH4" s="1"/>
       <c r="DI4" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="DK4" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="DK4" s="1">
+        <v>1</v>
+      </c>
       <c r="DL4" s="1"/>
       <c r="DM4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="1"/>
-      <c r="DO4" s="1"/>
-      <c r="DP4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="DO4" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DP4" s="1">
+        <v>-9</v>
+      </c>
       <c r="DQ4" s="1"/>
-    </row>
-    <row r="5" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M5" s="1">
-        <v>12345</v>
-      </c>
-      <c r="N5" s="1">
-        <v>54321</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1">
-        <v>-5</v>
-      </c>
-      <c r="V5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>-5</v>
-      </c>
-      <c r="X5" s="1">
-        <v>-4</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>-5</v>
-      </c>
-      <c r="AF5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>70</v>
-      </c>
-      <c r="AJ5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1">
-        <v>-5</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>-5</v>
-      </c>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
-      <c r="CL5" s="1"/>
-      <c r="CM5" s="1"/>
-      <c r="CN5" s="1"/>
-      <c r="CO5" s="1"/>
-      <c r="CP5" s="1"/>
-      <c r="CQ5" s="1"/>
-      <c r="CR5" s="1"/>
-      <c r="CS5" s="1"/>
-      <c r="CT5" s="1"/>
-      <c r="CU5" s="1"/>
-      <c r="CV5" s="1"/>
-      <c r="CW5" s="1"/>
-      <c r="CX5" s="1"/>
-      <c r="CY5" s="1"/>
-      <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
-      <c r="DB5" s="1"/>
-      <c r="DC5" s="1"/>
-      <c r="DD5" s="1"/>
-      <c r="DE5" s="1"/>
-      <c r="DF5" s="1"/>
-      <c r="DG5" s="1"/>
-      <c r="DH5" s="1"/>
-      <c r="DI5" s="1"/>
-      <c r="DJ5" s="1"/>
-      <c r="DK5" s="1"/>
-      <c r="DL5" s="1"/>
-      <c r="DM5" s="13"/>
-      <c r="DN5" s="1"/>
-      <c r="DO5" s="1"/>
-      <c r="DP5" s="1"/>
-      <c r="DQ5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{738CABBD-1BC6-4573-8D9B-E4AB2F6F63EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{738CABBD-1BC6-4573-8D9B-E4AB2F6F63EA}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{85D0BF4B-E851-46AA-8BD6-699AA0AD7D92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{85D0BF4B-E851-46AA-8BD6-699AA0AD7D92}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{47C05472-E71E-4CA6-B109-B157B52AA2DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{47C05472-E71E-4CA6-B109-B157B52AA2DC}">
       <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5" xr:uid="{F9EFE154-9FD1-4DD6-9F6F-1ECD74F5E124}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{F9EFE154-9FD1-4DD6-9F6F-1ECD74F5E124}">
       <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AD4:AD5 AF4:AH5 AJ4:AJ5 BB4:BB5 AW4:AW5 AA4:AA5 DM4:DM5" xr:uid="{A6BE7EF8-0CC7-4BB5-8D52-5EC97F60A7A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AD4 AF4:AH4 AJ4 BB4 AW4 AA4 DM4" xr:uid="{A6BE7EF8-0CC7-4BB5-8D52-5EC97F60A7A9}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y5 AB4:AB5 AK4:AK5 AV4:AV5" xr:uid="{9E78BD39-4517-4E9B-A3E0-2F8AB0A2F778}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4 AB4 AK4 AV4" xr:uid="{9E78BD39-4517-4E9B-A3E0-2F8AB0A2F778}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{E3CC4E2B-0C5B-472C-A5F1-B3902EC19253}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{E3CC4E2B-0C5B-472C-A5F1-B3902EC19253}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5 BS4:BS5 BV4:BW5 CB4:CB5 CF4:CG5 CL4:CM5 CR4:CS5 CX4:CY5 DD4:DE5" xr:uid="{E2E8CCA3-40B4-4F05-94FC-9263C866A08E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4 BS4 BV4:BW4 CB4 CF4:CG4 CL4:CM4 CR4:CS4 CX4:CY4 DD4:DE4" xr:uid="{E2E8CCA3-40B4-4F05-94FC-9263C866A08E}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4:DK5" xr:uid="{5725F216-A39C-48F5-89F3-8D4525EBF377}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4" xr:uid="{5725F216-A39C-48F5-89F3-8D4525EBF377}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{7CE7155D-F896-4905-BBA4-692202C9BB2C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{7CE7155D-F896-4905-BBA4-692202C9BB2C}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3946,97 +3781,97 @@
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O5 BN4:BN5 CI4:CI5 CO4:CO5 CU4:CU5 DA4:DA5 DG4:DG5 AL4:AL5 BY4:BY5</xm:sqref>
+          <xm:sqref>O4 BN4 CI4 CO4 CU4 DA4 DG4 AL4 BY4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A1B8001-8D98-4413-BE0D-7C74C8E0B321}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4:AC5</xm:sqref>
+          <xm:sqref>AC4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA31B608-6076-4629-8EBC-FEC41C808E43}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>DN4:DN5</xm:sqref>
+          <xm:sqref>DN4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D0106B4-EC06-4345-B479-586520D2ABD8}">
           <x14:formula1>
             <xm:f>清單!$H$2:$H$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Z4:AA5</xm:sqref>
+          <xm:sqref>Z4:AA4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9474F82-EF30-4803-9BF7-CF703C484083}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4:AZ5</xm:sqref>
+          <xm:sqref>AZ4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86BF28A5-51AB-4E0E-AA7C-61356416FCA9}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4:BC5</xm:sqref>
+          <xm:sqref>BC4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{273798BE-546A-4BE2-B474-1423BB364237}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BD4:BD5</xm:sqref>
+          <xm:sqref>BD4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4AB0AC7-6C4F-4A15-9B14-A0DD1AFD31AB}">
           <x14:formula1>
             <xm:f>清單!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4:BU5</xm:sqref>
+          <xm:sqref>BU4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BFCAE96-5B6C-4C99-BA86-2B28DFA01A0A}">
           <x14:formula1>
             <xm:f>清單!$M$2:$M$10</xm:f>
           </x14:formula1>
-          <xm:sqref>CA4:CA5</xm:sqref>
+          <xm:sqref>CA4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BA8BEE0-9F25-4002-95E2-F021B7D1838B}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BO4:BO5 BZ4:BZ5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5</xm:sqref>
+          <xm:sqref>BO4 BZ4 CJ4 CP4 CV4 DB4 DH4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB4F9CB-C4C6-4BA9-A946-4D89FF6127FA}">
           <x14:formula1>
             <xm:f>清單!$O$2:$O$9</xm:f>
           </x14:formula1>
-          <xm:sqref>CQ4:CQ5</xm:sqref>
+          <xm:sqref>CQ4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45A8106E-0690-4E45-B840-B8F0AF474DA2}">
           <x14:formula1>
             <xm:f>清單!$N$2:$N$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CK4:CK5</xm:sqref>
+          <xm:sqref>CK4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4003CD0-27D8-46C0-ABA8-4F9223852BE9}">
           <x14:formula1>
             <xm:f>清單!$Q$2:$Q$7</xm:f>
           </x14:formula1>
-          <xm:sqref>DC4:DC5</xm:sqref>
+          <xm:sqref>DC4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FA38D5C-5E28-43F5-8F73-C974579BC0DE}">
           <x14:formula1>
             <xm:f>清單!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>DI4:DI5</xm:sqref>
+          <xm:sqref>DI4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED3F8C50-A8B5-471B-B58B-1CB6CFEBB09F}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AO4:AO5 AR4:AR5 AX4:AX5</xm:sqref>
+          <xm:sqref>AO4 AR4 AX4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9E30851-7F75-47B5-AE6D-9994F550371A}">
           <x14:formula1>
             <xm:f>清單!$P$2:$P$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CW4:CW5</xm:sqref>
+          <xm:sqref>CW4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4048,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4068,7 +3903,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>9</v>
@@ -4427,7 +4262,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
@@ -4471,7 +4306,7 @@
         <v>132</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>128</v>
@@ -4500,51 +4335,51 @@
         <v>128</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>128</v>
@@ -4552,170 +4387,170 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BS2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="BU2" s="1"/>
       <c r="BV2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BY2" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="BZ2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CA2" s="1"/>
       <c r="CB2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CF2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CI2" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="CJ2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CM2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CM2" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="CN2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CO2" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="CP2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CQ2" s="1"/>
       <c r="CR2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CS2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CS2" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="CT2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CU2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CU2" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="CV2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CW2" s="1"/>
       <c r="CX2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CY2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CY2" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="CZ2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DA2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DA2" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="DB2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="DE2" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="DF2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="DG2" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="DH2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DI2" s="1"/>
       <c r="DJ2" s="1"/>
       <c r="DK2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DL2" s="1"/>
       <c r="DM2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>131</v>
@@ -4727,367 +4562,367 @@
     </row>
     <row r="3" spans="1:121" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
@@ -5099,7 +4934,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E4" s="13">
         <v>1114</v>
@@ -5128,7 +4963,7 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AD4" s="13"/>
       <c r="AE4" s="1"/>
@@ -5225,7 +5060,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="11">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4" xr:uid="{DB89FF09-3C25-4240-9AF6-DFF24EBDA775}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
@@ -5253,11 +5088,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{BBDC52DA-E206-44DA-AB23-8E79CB5DA317}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{65F58D99-0679-4E3C-9559-1C54A1D636DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{65F58D99-0679-4E3C-9559-1C54A1D636DD}">
       <formula1>INDIRECT(O4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{E2FA36E9-9A0B-49F2-AD60-B432ECA38634}">
-      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5397,37 +5229,37 @@
         <v>30</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>335</v>
-      </c>
       <c r="G1" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>458</v>
-      </c>
       <c r="L1" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M1" t="s">
         <v>83</v>
@@ -5450,812 +5282,812 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="F2" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="H2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L2" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="H2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L2" t="s">
-        <v>320</v>
-      </c>
       <c r="M2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>497</v>
-      </c>
       <c r="E3" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>340</v>
-      </c>
       <c r="G3" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" t="s">
         <v>317</v>
       </c>
-      <c r="K3" t="s">
-        <v>318</v>
-      </c>
       <c r="L3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N3" t="s">
+        <v>483</v>
+      </c>
+      <c r="O3" t="s">
         <v>484</v>
       </c>
-      <c r="O3" t="s">
-        <v>485</v>
-      </c>
       <c r="P3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>344</v>
-      </c>
       <c r="G4" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>347</v>
-      </c>
       <c r="G5" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q5" t="s">
         <v>326</v>
       </c>
-      <c r="Q5" t="s">
-        <v>327</v>
-      </c>
       <c r="R5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>351</v>
-      </c>
       <c r="G6" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I6" t="s">
+        <v>454</v>
+      </c>
+      <c r="J6" t="s">
+        <v>461</v>
+      </c>
+      <c r="K6" t="s">
         <v>455</v>
       </c>
-      <c r="J6" t="s">
-        <v>462</v>
-      </c>
-      <c r="K6" t="s">
-        <v>456</v>
-      </c>
       <c r="M6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>354</v>
-      </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>358</v>
-      </c>
       <c r="H8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>362</v>
-      </c>
       <c r="H9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>366</v>
-      </c>
       <c r="H10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>370</v>
-      </c>
       <c r="H11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>374</v>
-      </c>
       <c r="H12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="H13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>382</v>
-      </c>
       <c r="H14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>400</v>
       </c>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>401</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>402</v>
       </c>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>407</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>408</v>
       </c>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>410</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>411</v>
       </c>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -6265,7 +6097,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>

--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125F6FD-DA08-429A-8FAB-1F14D2A0DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6895BC91-BA10-4BEE-9899-98CF3B4B0920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-140" yWindow="0" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="579">
   <si>
     <t>User</t>
   </si>
@@ -1044,9 +1044,6 @@
     <t>測試姓名</t>
   </si>
   <si>
-    <t>民國70/06/02</t>
-  </si>
-  <si>
     <t>新竹市</t>
   </si>
   <si>
@@ -1847,10 +1844,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1121</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1860,12 +1853,6 @@
   <si>
     <t>黃色為必填項目/結核病編修會擋住</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>東引鄉</t>
-  </si>
-  <si>
-    <t>樂華村</t>
   </si>
   <si>
     <t>肺外依據</t>
@@ -1893,6 +1880,116 @@
 2 國外旅遊史
 3 國外居住史</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國60/06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國80/02/05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安樂區</t>
+  </si>
+  <si>
+    <t>三民里</t>
+  </si>
+  <si>
+    <t>金城鎮</t>
+  </si>
+  <si>
+    <t>北門里</t>
+  </si>
+  <si>
+    <t>黃色: 必填項目
+橙色: 由衛生局審核項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴重特殊傳染性肺炎(併發症)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登革熱</t>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案)</t>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋病</t>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤端螺旋體病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠疫</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>退伍軍人病</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>霍亂</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +2047,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1966,6 +2063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,7 +2100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2024,32 +2127,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2058,7 +2143,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2390,81 +2496,81 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:DQ4"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.796875" style="20"/>
-    <col min="18" max="18" width="9.59765625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.796875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.5" style="11" customWidth="1"/>
-    <col min="27" max="27" width="23.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.8984375" style="11" customWidth="1"/>
-    <col min="29" max="29" width="18.5" style="11" customWidth="1"/>
-    <col min="30" max="30" width="30.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="30.8984375" style="11" customWidth="1"/>
-    <col min="37" max="37" width="26.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.3984375" style="11" customWidth="1"/>
-    <col min="40" max="40" width="28.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.3984375" style="11" customWidth="1"/>
-    <col min="43" max="43" width="28.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.09765625" style="11" customWidth="1"/>
-    <col min="46" max="46" width="28.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="26" style="11" customWidth="1"/>
-    <col min="54" max="54" width="9.59765625" style="11" customWidth="1"/>
-    <col min="55" max="55" width="16.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="29.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="22.19921875" style="11" customWidth="1"/>
-    <col min="62" max="62" width="27.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="33.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="22.19921875" style="11" customWidth="1"/>
-    <col min="66" max="66" width="32.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="32.59765625" style="11" customWidth="1"/>
-    <col min="69" max="69" width="32.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="71" max="115" width="23.59765625" style="11" customWidth="1"/>
-    <col min="116" max="116" width="31" style="11" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="32.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="32.3984375" style="11" customWidth="1"/>
-    <col min="121" max="121" width="10.296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="8.796875" style="11" customWidth="1"/>
-    <col min="124" max="16384" width="8.796875" style="11"/>
+    <col min="1" max="2" width="8.796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" style="14"/>
+    <col min="18" max="18" width="9.59765625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.796875" style="10" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.5" style="10" customWidth="1"/>
+    <col min="27" max="27" width="23.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.8984375" style="10" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="10" customWidth="1"/>
+    <col min="30" max="30" width="30.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="30.8984375" style="10" customWidth="1"/>
+    <col min="37" max="37" width="26.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.3984375" style="10" customWidth="1"/>
+    <col min="40" max="40" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.3984375" style="10" customWidth="1"/>
+    <col min="43" max="43" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.09765625" style="10" customWidth="1"/>
+    <col min="46" max="46" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="53" width="26" style="10" customWidth="1"/>
+    <col min="54" max="54" width="9.59765625" style="10" customWidth="1"/>
+    <col min="55" max="55" width="16.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="29.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="22.19921875" style="10" customWidth="1"/>
+    <col min="62" max="62" width="27.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="33.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="22.19921875" style="10" customWidth="1"/>
+    <col min="66" max="66" width="32.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="32.59765625" style="10" customWidth="1"/>
+    <col min="69" max="69" width="32.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="71" max="115" width="23.59765625" style="10" customWidth="1"/>
+    <col min="116" max="116" width="31" style="10" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="32.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="32.3984375" style="10" customWidth="1"/>
+    <col min="121" max="121" width="10.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="8.796875" style="10" customWidth="1"/>
+    <col min="124" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2474,9 +2580,9 @@
         <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2512,7 +2618,7 @@
       <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="20" t="s">
         <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -2540,7 +2646,7 @@
         <v>27</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>74</v>
@@ -2829,11 +2935,10 @@
       </c>
     </row>
     <row r="2" spans="1:121" s="1" customFormat="1" ht="71" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="D2" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2841,7 +2946,7 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="20"/>
       <c r="S2" s="1" t="s">
         <v>128</v>
       </c>
@@ -2864,7 +2969,7 @@
         <v>132</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>128</v>
@@ -2891,7 +2996,7 @@
         <v>128</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>135</v>
@@ -2903,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>137</v>
@@ -2912,7 +3017,7 @@
         <v>137</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>138</v>
@@ -2927,7 +3032,7 @@
         <v>140</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>142</v>
@@ -2939,7 +3044,7 @@
         <v>128</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>144</v>
@@ -3095,7 +3200,7 @@
         <v>128</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>131</v>
@@ -3104,7 +3209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
+    <row r="3" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>175</v>
       </c>
@@ -3114,10 +3219,10 @@
       <c r="C3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3153,7 +3258,7 @@
       <c r="P3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="20" t="s">
         <v>224</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -3469,27 +3574,27 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="16">
+    <row r="4" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+        <v>543</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="20" t="s">
         <v>296</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -3502,7 +3607,7 @@
         <v>299</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="M4" s="1">
         <v>12345</v>
@@ -3510,113 +3615,113 @@
       <c r="N4" s="1">
         <v>54321</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>545</v>
+      <c r="O4" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>552</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="13" t="b">
+      <c r="S4" s="20" t="b">
         <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>-1</v>
       </c>
       <c r="U4" s="1">
-        <v>-5</v>
-      </c>
-      <c r="V4" s="13" t="b">
-        <v>1</v>
+        <v>-20</v>
+      </c>
+      <c r="V4" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="X4" s="1">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="Y4" s="1">
         <v>2</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA4" s="13" t="b">
+        <v>301</v>
+      </c>
+      <c r="AA4" s="20" t="b">
         <v>1</v>
       </c>
       <c r="AB4" s="1">
         <v>2</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD4" s="13" t="b">
+        <v>410</v>
+      </c>
+      <c r="AD4" s="20" t="b">
         <v>1</v>
       </c>
       <c r="AE4" s="1">
         <v>-5</v>
       </c>
-      <c r="AF4" s="13" t="b">
+      <c r="AF4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AG4" s="13" t="b">
+      <c r="AG4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AH4" s="13" t="b">
+      <c r="AH4" s="20" t="b">
         <v>1</v>
       </c>
       <c r="AI4" s="1">
         <v>70</v>
       </c>
-      <c r="AJ4" s="13" t="b">
+      <c r="AJ4" s="20" t="b">
         <v>1</v>
       </c>
       <c r="AK4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>-10</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>-10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>-20</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>-20</v>
+      </c>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AV4" s="1">
         <v>1</v>
       </c>
-      <c r="AW4" s="13" t="b">
+      <c r="AW4" s="20" t="b">
         <v>0</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="13" t="b">
+      <c r="BB4" s="20" t="b">
         <v>1</v>
       </c>
       <c r="BC4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD4" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="BE4" s="1">
         <v>5</v>
@@ -3625,10 +3730,10 @@
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
       <c r="BI4" s="1">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="BJ4" s="1">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3643,7 +3748,7 @@
       </c>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BV4" s="1">
         <v>2</v>
@@ -3653,7 +3758,7 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
       <c r="CA4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CB4" s="1">
         <v>2</v>
@@ -3661,11 +3766,9 @@
       <c r="CC4" s="1">
         <v>-20</v>
       </c>
-      <c r="CD4" s="1" t="s">
-        <v>540</v>
-      </c>
+      <c r="CD4" s="1"/>
       <c r="CE4" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="CF4" s="1">
         <v>2</v>
@@ -3675,7 +3778,7 @@
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CL4" s="1">
         <v>2</v>
@@ -3685,7 +3788,7 @@
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="CR4" s="1">
         <v>2</v>
@@ -3695,7 +3798,7 @@
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="CX4" s="1">
         <v>2</v>
@@ -3705,7 +3808,7 @@
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="DD4" s="1">
         <v>2</v>
@@ -3715,20 +3818,20 @@
       <c r="DG4" s="1"/>
       <c r="DH4" s="1"/>
       <c r="DI4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="DK4" s="1">
         <v>1</v>
       </c>
       <c r="DL4" s="1"/>
-      <c r="DM4" s="13" t="b">
+      <c r="DM4" s="20" t="b">
         <v>1</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="DO4" s="1">
         <v>-9</v>
@@ -3737,38 +3840,220 @@
         <v>-9</v>
       </c>
       <c r="DQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="M5" s="1">
+        <v>12345</v>
+      </c>
+      <c r="N5" s="1">
+        <v>54321</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>60</v>
+      </c>
+      <c r="AJ5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="20"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{738CABBD-1BC6-4573-8D9B-E4AB2F6F63EA}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{738CABBD-1BC6-4573-8D9B-E4AB2F6F63EA}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{85D0BF4B-E851-46AA-8BD6-699AA0AD7D92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{85D0BF4B-E851-46AA-8BD6-699AA0AD7D92}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{47C05472-E71E-4CA6-B109-B157B52AA2DC}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{F9EFE154-9FD1-4DD6-9F6F-1ECD74F5E124}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{F9EFE154-9FD1-4DD6-9F6F-1ECD74F5E124}">
       <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AD4 AF4:AH4 AJ4 BB4 AW4 AA4 DM4" xr:uid="{A6BE7EF8-0CC7-4BB5-8D52-5EC97F60A7A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AD4:AD5 AF4:AH5 AJ4:AJ5 BB4:BB5 AW4:AW5 AA4:AA5 DM4:DM5" xr:uid="{A6BE7EF8-0CC7-4BB5-8D52-5EC97F60A7A9}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4 AB4 AK4 AV4" xr:uid="{9E78BD39-4517-4E9B-A3E0-2F8AB0A2F778}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y5 AB4:AB5 AK4:AK5 AV4:AV5" xr:uid="{9E78BD39-4517-4E9B-A3E0-2F8AB0A2F778}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{E3CC4E2B-0C5B-472C-A5F1-B3902EC19253}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{E3CC4E2B-0C5B-472C-A5F1-B3902EC19253}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4 BS4 BV4:BW4 CB4 CF4:CG4 CL4:CM4 CR4:CS4 CX4:CY4 DD4:DE4" xr:uid="{E2E8CCA3-40B4-4F05-94FC-9263C866A08E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5 BS4:BS5 BV4:BW5 CB4:CB5 CF4:CG5 CL4:CM5 CR4:CS5 CX4:CY5 DD4:DE5" xr:uid="{E2E8CCA3-40B4-4F05-94FC-9263C866A08E}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4" xr:uid="{5725F216-A39C-48F5-89F3-8D4525EBF377}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4:DK5" xr:uid="{5725F216-A39C-48F5-89F3-8D4525EBF377}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{7CE7155D-F896-4905-BBA4-692202C9BB2C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{7CE7155D-F896-4905-BBA4-692202C9BB2C}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3776,102 +4061,114 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C8528D2-EB1A-48B2-8B43-203731984A1F}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>O4 BN4 CI4 CO4 CU4 DA4 DG4 AL4 BY4</xm:sqref>
+          <xm:sqref>O4:O5 BN4:BN5 CI4:CI5 CO4:CO5 CU4:CU5 DA4:DA5 DG4:DG5 AL4:AL5 BY4:BY5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A1B8001-8D98-4413-BE0D-7C74C8E0B321}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4</xm:sqref>
+          <xm:sqref>AC4:AC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA31B608-6076-4629-8EBC-FEC41C808E43}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>DN4</xm:sqref>
+          <xm:sqref>DN4:DN5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D0106B4-EC06-4345-B479-586520D2ABD8}">
           <x14:formula1>
             <xm:f>清單!$H$2:$H$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Z4:AA4</xm:sqref>
+          <xm:sqref>Z4:AA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9474F82-EF30-4803-9BF7-CF703C484083}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86BF28A5-51AB-4E0E-AA7C-61356416FCA9}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4</xm:sqref>
+          <xm:sqref>BC4:BC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{273798BE-546A-4BE2-B474-1423BB364237}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BD4</xm:sqref>
+          <xm:sqref>BD4:BD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4AB0AC7-6C4F-4A15-9B14-A0DD1AFD31AB}">
           <x14:formula1>
             <xm:f>清單!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4</xm:sqref>
+          <xm:sqref>BU4:BU5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BFCAE96-5B6C-4C99-BA86-2B28DFA01A0A}">
           <x14:formula1>
             <xm:f>清單!$M$2:$M$10</xm:f>
           </x14:formula1>
-          <xm:sqref>CA4</xm:sqref>
+          <xm:sqref>CA4:CA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BA8BEE0-9F25-4002-95E2-F021B7D1838B}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BO4 BZ4 CJ4 CP4 CV4 DB4 DH4</xm:sqref>
+          <xm:sqref>BO4:BO5 BZ4:BZ5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB4F9CB-C4C6-4BA9-A946-4D89FF6127FA}">
           <x14:formula1>
             <xm:f>清單!$O$2:$O$9</xm:f>
           </x14:formula1>
-          <xm:sqref>CQ4</xm:sqref>
+          <xm:sqref>CQ4:CQ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45A8106E-0690-4E45-B840-B8F0AF474DA2}">
           <x14:formula1>
             <xm:f>清單!$N$2:$N$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CK4</xm:sqref>
+          <xm:sqref>CK4:CK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4003CD0-27D8-46C0-ABA8-4F9223852BE9}">
           <x14:formula1>
             <xm:f>清單!$Q$2:$Q$7</xm:f>
           </x14:formula1>
-          <xm:sqref>DC4</xm:sqref>
+          <xm:sqref>DC4:DC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FA38D5C-5E28-43F5-8F73-C974579BC0DE}">
           <x14:formula1>
             <xm:f>清單!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>DI4</xm:sqref>
+          <xm:sqref>DI4:DI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED3F8C50-A8B5-471B-B58B-1CB6CFEBB09F}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AO4 AR4 AX4</xm:sqref>
+          <xm:sqref>AO4:AO5 AR4:AR5 AX4:AX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9E30851-7F75-47B5-AE6D-9994F550371A}">
           <x14:formula1>
             <xm:f>清單!$P$2:$P$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CW4</xm:sqref>
+          <xm:sqref>CW4:CW5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B0F7BC1-7A02-478D-A70B-FCC08F301647}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99F496EE-1783-4531-8264-6101F5605C39}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3881,19 +4178,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:DQ4"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="17.3984375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="5" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3902,10 +4200,10 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3920,13 +4218,13 @@
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -3935,13 +4233,13 @@
       <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="23" t="s">
         <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -3953,19 +4251,19 @@
       <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="16" t="s">
         <v>27</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -4258,20 +4556,22 @@
       </c>
     </row>
     <row r="2" spans="1:121" s="7" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I2" s="1"/>
@@ -4282,7 +4582,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="20"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
         <v>128</v>
@@ -4306,7 +4606,7 @@
         <v>132</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>128</v>
@@ -4335,7 +4635,7 @@
         <v>128</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>135</v>
@@ -4347,7 +4647,7 @@
         <v>136</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>137</v>
@@ -4356,7 +4656,7 @@
         <v>137</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>138</v>
@@ -4568,12 +4868,12 @@
         <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4609,7 +4909,7 @@
       <c r="P3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="20" t="s">
         <v>224</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -4925,53 +5225,53 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:121" s="16" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="16">
+    <row r="4" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" s="20">
         <v>1114</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="13"/>
+      <c r="S4" s="20"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="13"/>
+      <c r="V4" s="20"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="13"/>
+      <c r="AA4" s="20"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD4" s="13"/>
+        <v>373</v>
+      </c>
+      <c r="AD4" s="20"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="13"/>
+      <c r="AJ4" s="20"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -4984,12 +5284,12 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-      <c r="AW4" s="13"/>
+      <c r="AW4" s="20"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="13"/>
+      <c r="BB4" s="20"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
@@ -5052,43 +5352,170 @@
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
       <c r="DL4" s="1"/>
-      <c r="DM4" s="13"/>
+      <c r="DM4" s="20"/>
       <c r="DN4" s="1"/>
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
       <c r="DQ4" s="1"/>
     </row>
+    <row r="5" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1114</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="20"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4" xr:uid="{DB89FF09-3C25-4240-9AF6-DFF24EBDA775}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4:DK5" xr:uid="{DB89FF09-3C25-4240-9AF6-DFF24EBDA775}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4 BS4 BV4:BW4 CB4 CF4:CG4 CL4:CM4 CR4:CS4 CX4:CY4 DD4:DE4" xr:uid="{AC41017A-C11F-4A98-86F4-D19ACC737BF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5 BS4:BS5 BV4:BW5 CB4:CB5 CF4:CG5 CL4:CM5 CR4:CS5 CX4:CY5 DD4:DE5" xr:uid="{AC41017A-C11F-4A98-86F4-D19ACC737BF0}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{736E25C1-41A7-42F1-9E0A-429F872053BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{736E25C1-41A7-42F1-9E0A-429F872053BD}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4 AB4 AK4 AV4" xr:uid="{A5A2B422-312E-4CF8-8E61-C19D02947BC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y5 AB4:AB5 AK4:AK5 AV4:AV5" xr:uid="{A5A2B422-312E-4CF8-8E61-C19D02947BC3}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AD4 AF4:AH4 AJ4 BB4 AW4 AA4 DM4" xr:uid="{5372353E-3D10-4759-BC9C-3A5EB4F4CE1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AD4:AD5 AF4:AH5 AJ4:AJ5 BB4:BB5 AW4:AW5 AA4:AA5 DM4:DM5" xr:uid="{5372353E-3D10-4759-BC9C-3A5EB4F4CE1E}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{BCF9837D-7C5C-4B97-B009-54AA57CB9E3C}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{5DF44BA0-66E1-48D8-8CFA-54D965F28151}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{2E362D76-B0C9-4DE0-9085-1D078F6B2D51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{2E362D76-B0C9-4DE0-9085-1D078F6B2D51}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{BBDC52DA-E206-44DA-AB23-8E79CB5DA317}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{BBDC52DA-E206-44DA-AB23-8E79CB5DA317}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{65F58D99-0679-4E3C-9559-1C54A1D636DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{65F58D99-0679-4E3C-9559-1C54A1D636DD}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5096,102 +5523,114 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7339176F-129E-4E0A-9F93-8B504B7B71DC}">
           <x14:formula1>
             <xm:f>清單!$N$2:$N$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CK4</xm:sqref>
+          <xm:sqref>CK4:CK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A3589C6C-AB1A-4A86-AD30-578C8D06133F}">
           <x14:formula1>
             <xm:f>清單!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4</xm:sqref>
+          <xm:sqref>BU4:BU5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{092C0BD0-5B1B-46C9-9FAB-41089E3CA740}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4</xm:sqref>
+          <xm:sqref>AC4:AC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2B32895-3316-4335-A9F2-88878BAA17CA}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>O4 BN4 CI4 CO4 CU4 DA4 DG4 AL4 BY4</xm:sqref>
+          <xm:sqref>O4:O5 BN4:BN5 CI4:CI5 CO4:CO5 CU4:CU5 DA4:DA5 DG4:DG5 AL4:AL5 BY4:BY5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88C4A0FE-C561-4AB3-B74B-719FF5C75E8D}">
           <x14:formula1>
             <xm:f>清單!$P$2:$P$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CW4</xm:sqref>
+          <xm:sqref>CW4:CW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65EEE7B4-75B6-4609-88F1-880022C3D59F}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AO4 AR4 AX4</xm:sqref>
+          <xm:sqref>AO4:AO5 AR4:AR5 AX4:AX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{374C5745-9D26-4CAD-B61F-F3DBBD249C23}">
           <x14:formula1>
             <xm:f>清單!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>DI4</xm:sqref>
+          <xm:sqref>DI4:DI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{33E38789-5623-4771-A04C-376A5D2C7DEF}">
           <x14:formula1>
             <xm:f>清單!$Q$2:$Q$7</xm:f>
           </x14:formula1>
-          <xm:sqref>DC4</xm:sqref>
+          <xm:sqref>DC4:DC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B0A0CE9-2BFB-4ADE-96E1-66C30C3B5771}">
           <x14:formula1>
             <xm:f>清單!$O$2:$O$9</xm:f>
           </x14:formula1>
-          <xm:sqref>CQ4</xm:sqref>
+          <xm:sqref>CQ4:CQ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01E61EE6-7D67-4F37-A222-F17E2E200FAC}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BO4 BZ4 CJ4 CP4 CV4 DB4 DH4</xm:sqref>
+          <xm:sqref>BO4:BO5 BZ4:BZ5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D445D67-7C48-4B4A-93C9-9C67BA026510}">
           <x14:formula1>
             <xm:f>清單!$M$2:$M$10</xm:f>
           </x14:formula1>
-          <xm:sqref>CA4</xm:sqref>
+          <xm:sqref>CA4:CA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFBE8AB1-6C42-44F1-8B50-F6571254629A}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BD4</xm:sqref>
+          <xm:sqref>BD4:BD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98D63DA1-A621-4EA3-BCB4-7A5A1A28826A}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4</xm:sqref>
+          <xm:sqref>BC4:BC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{360BB425-9AFE-4C17-B56B-BD5491BF7455}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3479BD86-2A2D-499C-AB65-965DAD6CFEAD}">
           <x14:formula1>
             <xm:f>清單!$H$2:$H$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Z4:AA4</xm:sqref>
+          <xm:sqref>Z4:AA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6F0895B-71D0-4911-B72B-F8128BA040DF}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>DN4</xm:sqref>
+          <xm:sqref>DN4:DN5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80F9746F-5DAA-4910-A59B-FCF0841152A8}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4AFE861-0C67-4E70-BFD1-D2A8AD7A39AE}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5201,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9876E0E3-B33D-4304-86CE-5F9B37681B55}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5222,44 +5661,46 @@
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" ht="15.5">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>435</v>
+      <c r="G1" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>470</v>
+      <c r="L1" s="14" t="s">
+        <v>469</v>
       </c>
       <c r="M1" t="s">
         <v>83</v>
@@ -5279,831 +5720,903 @@
       <c r="R1" t="s">
         <v>117</v>
       </c>
+      <c r="S1" t="s">
+        <v>557</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>556</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="F2" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="H2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L2" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="M2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N2" t="s">
+        <v>481</v>
+      </c>
+      <c r="O2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>309</v>
+      </c>
+      <c r="R2" t="s">
+        <v>488</v>
+      </c>
+      <c r="S2" t="s">
+        <v>558</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="D3" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="F3" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="H3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L3" t="s">
+        <v>470</v>
+      </c>
+      <c r="M3" t="s">
         <v>475</v>
       </c>
-      <c r="H2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" t="s">
-        <v>450</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="N3" t="s">
+        <v>482</v>
+      </c>
+      <c r="O3" t="s">
+        <v>483</v>
+      </c>
+      <c r="P3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R3" t="s">
+        <v>326</v>
+      </c>
+      <c r="S3" t="s">
+        <v>560</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" t="s">
+        <v>451</v>
+      </c>
+      <c r="J4" t="s">
         <v>458</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K4" t="s">
         <v>466</v>
       </c>
-      <c r="L2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L4" t="s">
+        <v>304</v>
+      </c>
+      <c r="M4" t="s">
+        <v>476</v>
+      </c>
+      <c r="N4" t="s">
         <v>321</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O4" t="s">
+        <v>484</v>
+      </c>
+      <c r="P4" t="s">
         <v>482</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q4" t="s">
+        <v>482</v>
+      </c>
+      <c r="R4" t="s">
+        <v>489</v>
+      </c>
+      <c r="S4" t="s">
+        <v>562</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" t="s">
+        <v>459</v>
+      </c>
+      <c r="K5" t="s">
+        <v>467</v>
+      </c>
+      <c r="L5" t="s">
+        <v>471</v>
+      </c>
+      <c r="M5" t="s">
+        <v>305</v>
+      </c>
+      <c r="N5" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" t="s">
+        <v>485</v>
+      </c>
+      <c r="P5" t="s">
         <v>324</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q5" t="s">
+        <v>325</v>
+      </c>
+      <c r="R5" t="s">
         <v>310</v>
       </c>
-      <c r="Q2" t="s">
-        <v>310</v>
-      </c>
-      <c r="R2" t="s">
-        <v>489</v>
+      <c r="S5" t="s">
+        <v>564</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="H3" t="s">
-        <v>439</v>
-      </c>
-      <c r="I3" t="s">
-        <v>451</v>
-      </c>
-      <c r="J3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L3" t="s">
-        <v>471</v>
-      </c>
-      <c r="M3" t="s">
-        <v>476</v>
-      </c>
-      <c r="N3" t="s">
-        <v>483</v>
-      </c>
-      <c r="O3" t="s">
-        <v>484</v>
-      </c>
-      <c r="P3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>309</v>
-      </c>
-      <c r="R3" t="s">
-        <v>327</v>
+    <row r="6" spans="1:20">
+      <c r="A6" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" t="s">
+        <v>440</v>
+      </c>
+      <c r="I6" t="s">
+        <v>453</v>
+      </c>
+      <c r="J6" t="s">
+        <v>460</v>
+      </c>
+      <c r="K6" t="s">
+        <v>454</v>
+      </c>
+      <c r="M6" t="s">
+        <v>477</v>
+      </c>
+      <c r="O6" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>324</v>
+      </c>
+      <c r="R6" t="s">
+        <v>314</v>
+      </c>
+      <c r="S6" t="s">
+        <v>566</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>567</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="H4" t="s">
-        <v>440</v>
-      </c>
-      <c r="I4" t="s">
-        <v>452</v>
-      </c>
-      <c r="J4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K4" t="s">
-        <v>467</v>
-      </c>
-      <c r="L4" t="s">
-        <v>305</v>
-      </c>
-      <c r="M4" t="s">
-        <v>477</v>
-      </c>
-      <c r="N4" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="O4" t="s">
-        <v>485</v>
-      </c>
-      <c r="P4" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>483</v>
-      </c>
-      <c r="R4" t="s">
-        <v>490</v>
+      <c r="C7" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K7" t="s">
+        <v>468</v>
+      </c>
+      <c r="M7" t="s">
+        <v>478</v>
+      </c>
+      <c r="O7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>314</v>
+      </c>
+      <c r="S7" t="s">
+        <v>568</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="20" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J8" t="s">
+        <v>462</v>
+      </c>
+      <c r="M8" t="s">
+        <v>479</v>
+      </c>
+      <c r="O8" t="s">
+        <v>486</v>
+      </c>
+      <c r="S8" t="s">
+        <v>570</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="H9" t="s">
+        <v>443</v>
+      </c>
+      <c r="J9" t="s">
+        <v>463</v>
+      </c>
+      <c r="M9" t="s">
+        <v>480</v>
+      </c>
+      <c r="O9" t="s">
+        <v>487</v>
+      </c>
+      <c r="S9" t="s">
+        <v>572</v>
+      </c>
+      <c r="T9" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10" t="s">
+        <v>444</v>
+      </c>
+      <c r="J10" t="s">
+        <v>464</v>
+      </c>
+      <c r="M10" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="H5" t="s">
-        <v>312</v>
-      </c>
-      <c r="I5" t="s">
-        <v>453</v>
-      </c>
-      <c r="J5" t="s">
-        <v>460</v>
-      </c>
-      <c r="K5" t="s">
-        <v>468</v>
-      </c>
-      <c r="L5" t="s">
-        <v>472</v>
-      </c>
-      <c r="M5" t="s">
-        <v>306</v>
-      </c>
-      <c r="N5" t="s">
-        <v>308</v>
-      </c>
-      <c r="O5" t="s">
-        <v>486</v>
-      </c>
-      <c r="P5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>326</v>
-      </c>
-      <c r="R5" t="s">
-        <v>311</v>
+      <c r="S10" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="H6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J6" t="s">
-        <v>461</v>
-      </c>
-      <c r="K6" t="s">
-        <v>455</v>
-      </c>
-      <c r="M6" t="s">
-        <v>478</v>
-      </c>
-      <c r="O6" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>325</v>
-      </c>
-      <c r="R6" t="s">
-        <v>315</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" t="s">
+        <v>301</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="G7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H7" t="s">
-        <v>442</v>
-      </c>
-      <c r="I7" t="s">
-        <v>315</v>
-      </c>
-      <c r="J7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K7" t="s">
-        <v>469</v>
-      </c>
-      <c r="M7" t="s">
-        <v>479</v>
-      </c>
-      <c r="O7" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>315</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="H12" t="s">
+        <v>445</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="H8" t="s">
-        <v>443</v>
-      </c>
-      <c r="I8" t="s">
-        <v>455</v>
-      </c>
-      <c r="J8" t="s">
-        <v>463</v>
-      </c>
-      <c r="M8" t="s">
-        <v>480</v>
-      </c>
-      <c r="O8" t="s">
-        <v>487</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" t="s">
+        <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="H9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J9" t="s">
-        <v>464</v>
-      </c>
-      <c r="M9" t="s">
-        <v>481</v>
-      </c>
-      <c r="O9" t="s">
-        <v>488</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="H10" t="s">
-        <v>445</v>
-      </c>
-      <c r="J10" t="s">
-        <v>465</v>
-      </c>
-      <c r="M10" t="s">
-        <v>315</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="H11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="H14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="20" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="D16" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="A36" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_010_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6895BC91-BA10-4BEE-9899-98CF3B4B0920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E90504-E625-4F00-A2F7-21407BA949A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="0" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="260" windowWidth="14480" windowHeight="9940" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="清單" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">report!$A$1:$DQ$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">report!$B$1:$DR$4</definedName>
     <definedName name="二林鎮">清單!$D$11</definedName>
     <definedName name="士林區">清單!$D$3</definedName>
     <definedName name="中壢區">清單!$D$4</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="581">
   <si>
     <t>User</t>
   </si>
@@ -1990,6 +1990,14 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2100,7 +2108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2166,6 +2174,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2496,495 +2507,497 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:DQ5"/>
+  <dimension ref="A1:DR5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.796875" style="14"/>
-    <col min="18" max="18" width="9.59765625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.796875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.5" style="10" customWidth="1"/>
-    <col min="27" max="27" width="23.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.8984375" style="10" customWidth="1"/>
-    <col min="29" max="29" width="18.5" style="10" customWidth="1"/>
-    <col min="30" max="30" width="30.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="30.8984375" style="10" customWidth="1"/>
-    <col min="37" max="37" width="26.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.3984375" style="10" customWidth="1"/>
-    <col min="40" max="40" width="28.796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.3984375" style="10" customWidth="1"/>
-    <col min="43" max="43" width="28.796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.09765625" style="10" customWidth="1"/>
-    <col min="46" max="46" width="28.796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="26" style="10" customWidth="1"/>
-    <col min="54" max="54" width="9.59765625" style="10" customWidth="1"/>
-    <col min="55" max="55" width="16.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="29.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="22.19921875" style="10" customWidth="1"/>
-    <col min="62" max="62" width="27.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="33.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="22.19921875" style="10" customWidth="1"/>
-    <col min="66" max="66" width="32.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="32.59765625" style="10" customWidth="1"/>
-    <col min="69" max="69" width="32.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="71" max="115" width="23.59765625" style="10" customWidth="1"/>
-    <col min="116" max="116" width="31" style="10" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="32.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="32.3984375" style="10" customWidth="1"/>
-    <col min="121" max="121" width="10.296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="8.796875" style="10" customWidth="1"/>
-    <col min="124" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="1" width="8.796875" style="10"/>
+    <col min="2" max="3" width="8.796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.796875" style="14"/>
+    <col min="19" max="19" width="9.59765625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="14.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.796875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="15.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.5" style="10" customWidth="1"/>
+    <col min="28" max="28" width="23.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.8984375" style="10" customWidth="1"/>
+    <col min="30" max="30" width="18.5" style="10" customWidth="1"/>
+    <col min="31" max="31" width="30.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="30.8984375" style="10" customWidth="1"/>
+    <col min="38" max="38" width="26.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.3984375" style="10" customWidth="1"/>
+    <col min="41" max="41" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.3984375" style="10" customWidth="1"/>
+    <col min="44" max="44" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.09765625" style="10" customWidth="1"/>
+    <col min="47" max="47" width="28.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26" style="10" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="26" style="10" customWidth="1"/>
+    <col min="55" max="55" width="9.59765625" style="10" customWidth="1"/>
+    <col min="56" max="56" width="16.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="22.19921875" style="10" customWidth="1"/>
+    <col min="63" max="63" width="27.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="33.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="22.19921875" style="10" customWidth="1"/>
+    <col min="67" max="67" width="32.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="32.59765625" style="10" customWidth="1"/>
+    <col min="70" max="70" width="32.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="72" max="116" width="23.59765625" style="10" customWidth="1"/>
+    <col min="117" max="117" width="31" style="10" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="32.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="119" max="121" width="32.3984375" style="10" customWidth="1"/>
+    <col min="122" max="122" width="10.296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="8.796875" style="10" customWidth="1"/>
+    <col min="125" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:122" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:121" s="1" customFormat="1" ht="71" customHeight="1">
-      <c r="D2" s="21" t="s">
+    <row r="2" spans="1:122" s="1" customFormat="1" ht="71" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="E2" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="Q2" s="20"/>
-      <c r="S2" s="1" t="s">
+      <c r="I2" s="6"/>
+      <c r="R2" s="20"/>
+      <c r="T2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>128</v>
@@ -2992,680 +3005,686 @@
       <c r="AH2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>147</v>
       </c>
       <c r="BK2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="BZ2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CM2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CS2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CY2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="DB2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="DH2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DL2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="DP2" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="DQ2" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="3" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:122" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:122" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>12345</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>54321</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="R4" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="20" t="b">
+      <c r="S4" s="1"/>
+      <c r="T4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>-1</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>-20</v>
       </c>
-      <c r="V4" s="20" t="b">
+      <c r="W4" s="20" t="b">
         <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>-15</v>
       </c>
       <c r="X4" s="1">
         <v>-15</v>
       </c>
       <c r="Y4" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Z4" s="1">
         <v>2</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="AA4" s="20" t="b">
+      <c r="AB4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>2</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AD4" s="20" t="b">
+      <c r="AE4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>-5</v>
-      </c>
-      <c r="AF4" s="20" t="b">
-        <v>1</v>
       </c>
       <c r="AG4" s="20" t="b">
         <v>1</v>
@@ -3673,69 +3692,71 @@
       <c r="AH4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
         <v>70</v>
       </c>
-      <c r="AJ4" s="20" t="b">
+      <c r="AK4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>1</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>-20</v>
       </c>
       <c r="AN4" s="1">
         <v>-20</v>
       </c>
-      <c r="AO4" s="1"/>
+      <c r="AO4" s="1">
+        <v>-20</v>
+      </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="1" t="s">
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AW4" s="1">
         <v>1</v>
       </c>
-      <c r="AW4" s="20" t="b">
+      <c r="AX4" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1" t="s">
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="20" t="b">
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BE4" s="1">
+      <c r="BF4" s="1">
         <v>5</v>
       </c>
-      <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="1">
-        <v>-15</v>
-      </c>
+      <c r="BI4" s="1"/>
       <c r="BJ4" s="1">
         <v>-15</v>
       </c>
-      <c r="BK4" s="1"/>
+      <c r="BK4" s="1">
+        <v>-15</v>
+      </c>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1"/>
       <c r="BN4" s="1"/>
@@ -3743,204 +3764,207 @@
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="1">
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1">
         <v>2</v>
       </c>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1" t="s">
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BV4" s="1">
+      <c r="BW4" s="1">
         <v>2</v>
       </c>
-      <c r="BW4" s="1"/>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
-      <c r="CA4" s="1" t="s">
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="CB4" s="1">
+      <c r="CC4" s="1">
         <v>2</v>
       </c>
-      <c r="CC4" s="1">
+      <c r="CD4" s="1">
         <v>-20</v>
       </c>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="6" t="s">
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="CF4" s="1">
+      <c r="CG4" s="1">
         <v>2</v>
       </c>
-      <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
-      <c r="CK4" s="1" t="s">
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="CL4" s="1">
+      <c r="CM4" s="1">
         <v>2</v>
       </c>
-      <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
-      <c r="CQ4" s="1" t="s">
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CR4" s="1">
+      <c r="CS4" s="1">
         <v>2</v>
       </c>
-      <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="1" t="s">
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CX4" s="1">
+      <c r="CY4" s="1">
         <v>2</v>
       </c>
-      <c r="CY4" s="1"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="1" t="s">
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="DD4" s="1">
+      <c r="DE4" s="1">
         <v>2</v>
       </c>
-      <c r="DE4" s="1"/>
       <c r="DF4" s="1"/>
       <c r="DG4" s="1"/>
       <c r="DH4" s="1"/>
-      <c r="DI4" s="1" t="s">
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="DJ4" s="1" t="s">
+      <c r="DK4" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="DK4" s="1">
+      <c r="DL4" s="1">
         <v>1</v>
       </c>
-      <c r="DL4" s="1"/>
-      <c r="DM4" s="20" t="b">
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="DN4" s="1" t="s">
+      <c r="DO4" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="DO4" s="1">
-        <v>-9</v>
       </c>
       <c r="DP4" s="1">
         <v>-9</v>
       </c>
-      <c r="DQ4" s="1"/>
+      <c r="DQ4" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DR4" s="1"/>
     </row>
-    <row r="5" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:122" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20">
         <v>3</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>12345</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>54321</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="P5" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="R5" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="20" t="b">
+      <c r="S5" s="1"/>
+      <c r="T5" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="20" t="b">
+      <c r="V5" s="1"/>
+      <c r="W5" s="20" t="b">
         <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>-10</v>
       </c>
       <c r="X5" s="1">
         <v>-10</v>
       </c>
       <c r="Y5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Z5" s="1">
         <v>3</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="AA5" s="20" t="b">
+      <c r="AB5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" s="20" t="b">
+      <c r="AE5" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="20" t="b">
-        <v>0</v>
-      </c>
+      <c r="AF5" s="1"/>
       <c r="AG5" s="20" t="b">
         <v>0</v>
       </c>
       <c r="AH5" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>60</v>
       </c>
-      <c r="AJ5" s="20" t="b">
+      <c r="AK5" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -3952,13 +3976,13 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="20"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="20"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
@@ -3986,8 +4010,8 @@
       <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="6"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -4020,41 +4044,42 @@
       <c r="DJ5" s="1"/>
       <c r="DK5" s="1"/>
       <c r="DL5" s="1"/>
-      <c r="DM5" s="20"/>
-      <c r="DN5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="20"/>
       <c r="DO5" s="1"/>
       <c r="DP5" s="1"/>
       <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{738CABBD-1BC6-4573-8D9B-E4AB2F6F63EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{738CABBD-1BC6-4573-8D9B-E4AB2F6F63EA}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{85D0BF4B-E851-46AA-8BD6-699AA0AD7D92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{85D0BF4B-E851-46AA-8BD6-699AA0AD7D92}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{F9EFE154-9FD1-4DD6-9F6F-1ECD74F5E124}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5" xr:uid="{F9EFE154-9FD1-4DD6-9F6F-1ECD74F5E124}">
       <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AD4:AD5 AF4:AH5 AJ4:AJ5 BB4:BB5 AW4:AW5 AA4:AA5 DM4:DM5" xr:uid="{A6BE7EF8-0CC7-4BB5-8D52-5EC97F60A7A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T5 W4:W5 AE4:AE5 AG4:AI5 AK4:AK5 BC4:BC5 AX4:AX5 AB4:AB5 DN4:DN5" xr:uid="{A6BE7EF8-0CC7-4BB5-8D52-5EC97F60A7A9}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y5 AB4:AB5 AK4:AK5 AV4:AV5" xr:uid="{9E78BD39-4517-4E9B-A3E0-2F8AB0A2F778}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z5 AC4:AC5 AL4:AL5 AW4:AW5" xr:uid="{9E78BD39-4517-4E9B-A3E0-2F8AB0A2F778}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{E3CC4E2B-0C5B-472C-A5F1-B3902EC19253}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF4:BF5" xr:uid="{E3CC4E2B-0C5B-472C-A5F1-B3902EC19253}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5 BS4:BS5 BV4:BW5 CB4:CB5 CF4:CG5 CL4:CM5 CR4:CS5 CX4:CY5 DD4:DE5" xr:uid="{E2E8CCA3-40B4-4F05-94FC-9263C866A08E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM4:BM5 BT4:BT5 BW4:BX5 CC4:CC5 CG4:CH5 CM4:CN5 CS4:CT5 CY4:CZ5 DE4:DF5" xr:uid="{E2E8CCA3-40B4-4F05-94FC-9263C866A08E}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4:DK5" xr:uid="{5725F216-A39C-48F5-89F3-8D4525EBF377}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DL4:DL5" xr:uid="{5725F216-A39C-48F5-89F3-8D4525EBF377}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{7CE7155D-F896-4905-BBA4-692202C9BB2C}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{7CE7155D-F896-4905-BBA4-692202C9BB2C}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4066,109 +4091,109 @@
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O5 BN4:BN5 CI4:CI5 CO4:CO5 CU4:CU5 DA4:DA5 DG4:DG5 AL4:AL5 BY4:BY5</xm:sqref>
+          <xm:sqref>P4:P5 BO4:BO5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5 AM4:AM5 BZ4:BZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A1B8001-8D98-4413-BE0D-7C74C8E0B321}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4:AC5</xm:sqref>
+          <xm:sqref>AD4:AD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA31B608-6076-4629-8EBC-FEC41C808E43}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>DN4:DN5</xm:sqref>
+          <xm:sqref>DO4:DO5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D0106B4-EC06-4345-B479-586520D2ABD8}">
           <x14:formula1>
             <xm:f>清單!$H$2:$H$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Z4:AA5</xm:sqref>
+          <xm:sqref>AA4:AB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9474F82-EF30-4803-9BF7-CF703C484083}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4:AZ5</xm:sqref>
+          <xm:sqref>BA4:BA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86BF28A5-51AB-4E0E-AA7C-61356416FCA9}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4:BC5</xm:sqref>
+          <xm:sqref>BD4:BD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{273798BE-546A-4BE2-B474-1423BB364237}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BD4:BD5</xm:sqref>
+          <xm:sqref>BE4:BE5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4AB0AC7-6C4F-4A15-9B14-A0DD1AFD31AB}">
           <x14:formula1>
             <xm:f>清單!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4:BU5</xm:sqref>
+          <xm:sqref>BV4:BV5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BFCAE96-5B6C-4C99-BA86-2B28DFA01A0A}">
           <x14:formula1>
             <xm:f>清單!$M$2:$M$10</xm:f>
           </x14:formula1>
-          <xm:sqref>CA4:CA5</xm:sqref>
+          <xm:sqref>CB4:CB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BA8BEE0-9F25-4002-95E2-F021B7D1838B}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BO4:BO5 BZ4:BZ5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5</xm:sqref>
+          <xm:sqref>BP4:BP5 CA4:CA5 CK4:CK5 CQ4:CQ5 CW4:CW5 DC4:DC5 DI4:DI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB4F9CB-C4C6-4BA9-A946-4D89FF6127FA}">
           <x14:formula1>
             <xm:f>清單!$O$2:$O$9</xm:f>
           </x14:formula1>
-          <xm:sqref>CQ4:CQ5</xm:sqref>
+          <xm:sqref>CR4:CR5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45A8106E-0690-4E45-B840-B8F0AF474DA2}">
           <x14:formula1>
             <xm:f>清單!$N$2:$N$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CK4:CK5</xm:sqref>
+          <xm:sqref>CL4:CL5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4003CD0-27D8-46C0-ABA8-4F9223852BE9}">
           <x14:formula1>
             <xm:f>清單!$Q$2:$Q$7</xm:f>
           </x14:formula1>
-          <xm:sqref>DC4:DC5</xm:sqref>
+          <xm:sqref>DD4:DD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FA38D5C-5E28-43F5-8F73-C974579BC0DE}">
           <x14:formula1>
             <xm:f>清單!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>DI4:DI5</xm:sqref>
+          <xm:sqref>DJ4:DJ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED3F8C50-A8B5-471B-B58B-1CB6CFEBB09F}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AO4:AO5 AR4:AR5 AX4:AX5</xm:sqref>
+          <xm:sqref>AP4:AP5 AS4:AS5 AY4:AY5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9E30851-7F75-47B5-AE6D-9994F550371A}">
           <x14:formula1>
             <xm:f>清單!$P$2:$P$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CW4:CW5</xm:sqref>
+          <xm:sqref>CX4:CX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B0F7BC1-7A02-478D-A70B-FCC08F301647}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99F496EE-1783-4531-8264-6101F5605C39}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4</xm:sqref>
+          <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4178,403 +4203,407 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:DQ5"/>
+  <dimension ref="A1:DR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="22.09765625" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="14"/>
+    <col min="4" max="4" width="22.09765625" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="5" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:122" s="5" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:121" s="7" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:122" s="7" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4582,47 +4611,45 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>128</v>
@@ -4630,649 +4657,657 @@
       <c r="AH2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>147</v>
       </c>
       <c r="BK2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1" t="s">
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1" t="s">
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="BZ2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CW2" s="1"/>
-      <c r="CX2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="DB2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="DH2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="DI2" s="1"/>
+      <c r="DI2" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="DJ2" s="1"/>
-      <c r="DK2" s="1" t="s">
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="DL2" s="1"/>
-      <c r="DM2" s="1" t="s">
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="DP2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DQ2" s="1"/>
+      <c r="DQ2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR2" s="1"/>
     </row>
-    <row r="3" spans="1:121" s="9" customFormat="1" ht="87" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:122" s="9" customFormat="1" ht="87" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:122" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="E4" s="20">
+      <c r="F4" s="20">
         <v>1114</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="1"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1" t="s">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="1"/>
       <c r="AG4" s="20"/>
       <c r="AH4" s="20"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="1"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="20"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
@@ -5284,13 +5319,13 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="20"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="20"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
@@ -5318,8 +5353,8 @@
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
       <c r="CD4" s="1"/>
-      <c r="CE4" s="6"/>
-      <c r="CF4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="6"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -5352,60 +5387,63 @@
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
       <c r="DL4" s="1"/>
-      <c r="DM4" s="20"/>
-      <c r="DN4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="20"/>
       <c r="DO4" s="1"/>
       <c r="DP4" s="1"/>
       <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
     </row>
-    <row r="5" spans="1:121" s="11" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:122" s="11" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="E5" s="20">
+      <c r="F5" s="20">
         <v>1114</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="20"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="1"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="20"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="20"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1" t="s">
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="1"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="1"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="20"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -5417,13 +5455,13 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="20"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="20"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
@@ -5451,8 +5489,8 @@
       <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="6"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -5485,38 +5523,39 @@
       <c r="DJ5" s="1"/>
       <c r="DK5" s="1"/>
       <c r="DL5" s="1"/>
-      <c r="DM5" s="20"/>
-      <c r="DN5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="20"/>
       <c r="DO5" s="1"/>
       <c r="DP5" s="1"/>
       <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DK4:DK5" xr:uid="{DB89FF09-3C25-4240-9AF6-DFF24EBDA775}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DL4:DL5" xr:uid="{DB89FF09-3C25-4240-9AF6-DFF24EBDA775}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5 BS4:BS5 BV4:BW5 CB4:CB5 CF4:CG5 CL4:CM5 CR4:CS5 CX4:CY5 DD4:DE5" xr:uid="{AC41017A-C11F-4A98-86F4-D19ACC737BF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM4:BM5 BT4:BT5 BW4:BX5 CC4:CC5 CG4:CH5 CM4:CN5 CS4:CT5 CY4:CZ5 DE4:DF5" xr:uid="{AC41017A-C11F-4A98-86F4-D19ACC737BF0}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{736E25C1-41A7-42F1-9E0A-429F872053BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF4:BF5" xr:uid="{736E25C1-41A7-42F1-9E0A-429F872053BD}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y5 AB4:AB5 AK4:AK5 AV4:AV5" xr:uid="{A5A2B422-312E-4CF8-8E61-C19D02947BC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z5 AC4:AC5 AL4:AL5 AW4:AW5" xr:uid="{A5A2B422-312E-4CF8-8E61-C19D02947BC3}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AD4:AD5 AF4:AH5 AJ4:AJ5 BB4:BB5 AW4:AW5 AA4:AA5 DM4:DM5" xr:uid="{5372353E-3D10-4759-BC9C-3A5EB4F4CE1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T5 W4:W5 AE4:AE5 AG4:AI5 AK4:AK5 BC4:BC5 AX4:AX5 AB4:AB5 DN4:DN5" xr:uid="{5372353E-3D10-4759-BC9C-3A5EB4F4CE1E}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{2E362D76-B0C9-4DE0-9085-1D078F6B2D51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{2E362D76-B0C9-4DE0-9085-1D078F6B2D51}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{BBDC52DA-E206-44DA-AB23-8E79CB5DA317}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{BBDC52DA-E206-44DA-AB23-8E79CB5DA317}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{65F58D99-0679-4E3C-9559-1C54A1D636DD}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{65F58D99-0679-4E3C-9559-1C54A1D636DD}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5528,109 +5567,109 @@
           <x14:formula1>
             <xm:f>清單!$N$2:$N$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CK4:CK5</xm:sqref>
+          <xm:sqref>CL4:CL5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A3589C6C-AB1A-4A86-AD30-578C8D06133F}">
           <x14:formula1>
             <xm:f>清單!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4:BU5</xm:sqref>
+          <xm:sqref>BV4:BV5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{092C0BD0-5B1B-46C9-9FAB-41089E3CA740}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4:AC5</xm:sqref>
+          <xm:sqref>AD4:AD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2B32895-3316-4335-A9F2-88878BAA17CA}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O5 BN4:BN5 CI4:CI5 CO4:CO5 CU4:CU5 DA4:DA5 DG4:DG5 AL4:AL5 BY4:BY5</xm:sqref>
+          <xm:sqref>P4:P5 BO4:BO5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5 AM4:AM5 BZ4:BZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88C4A0FE-C561-4AB3-B74B-719FF5C75E8D}">
           <x14:formula1>
             <xm:f>清單!$P$2:$P$5</xm:f>
           </x14:formula1>
-          <xm:sqref>CW4:CW5</xm:sqref>
+          <xm:sqref>CX4:CX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65EEE7B4-75B6-4609-88F1-880022C3D59F}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AO4:AO5 AR4:AR5 AX4:AX5</xm:sqref>
+          <xm:sqref>AP4:AP5 AS4:AS5 AY4:AY5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{374C5745-9D26-4CAD-B61F-F3DBBD249C23}">
           <x14:formula1>
             <xm:f>清單!$R$2:$R$6</xm:f>
           </x14:formula1>
-          <xm:sqref>DI4:DI5</xm:sqref>
+          <xm:sqref>DJ4:DJ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{33E38789-5623-4771-A04C-376A5D2C7DEF}">
           <x14:formula1>
             <xm:f>清單!$Q$2:$Q$7</xm:f>
           </x14:formula1>
-          <xm:sqref>DC4:DC5</xm:sqref>
+          <xm:sqref>DD4:DD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B0A0CE9-2BFB-4ADE-96E1-66C30C3B5771}">
           <x14:formula1>
             <xm:f>清單!$O$2:$O$9</xm:f>
           </x14:formula1>
-          <xm:sqref>CQ4:CQ5</xm:sqref>
+          <xm:sqref>CR4:CR5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01E61EE6-7D67-4F37-A222-F17E2E200FAC}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BO4:BO5 BZ4:BZ5 CJ4:CJ5 CP4:CP5 CV4:CV5 DB4:DB5 DH4:DH5</xm:sqref>
+          <xm:sqref>BP4:BP5 CA4:CA5 CK4:CK5 CQ4:CQ5 CW4:CW5 DC4:DC5 DI4:DI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D445D67-7C48-4B4A-93C9-9C67BA026510}">
           <x14:formula1>
             <xm:f>清單!$M$2:$M$10</xm:f>
           </x14:formula1>
-          <xm:sqref>CA4:CA5</xm:sqref>
+          <xm:sqref>CB4:CB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFBE8AB1-6C42-44F1-8B50-F6571254629A}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BD4:BD5</xm:sqref>
+          <xm:sqref>BE4:BE5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98D63DA1-A621-4EA3-BCB4-7A5A1A28826A}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4:BC5</xm:sqref>
+          <xm:sqref>BD4:BD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{360BB425-9AFE-4C17-B56B-BD5491BF7455}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4:AZ5</xm:sqref>
+          <xm:sqref>BA4:BA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3479BD86-2A2D-499C-AB65-965DAD6CFEAD}">
           <x14:formula1>
             <xm:f>清單!$H$2:$H$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Z4:AA5</xm:sqref>
+          <xm:sqref>AA4:AB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6F0895B-71D0-4911-B72B-F8128BA040DF}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>DN4:DN5</xm:sqref>
+          <xm:sqref>DO4:DO5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80F9746F-5DAA-4910-A59B-FCF0841152A8}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4AFE861-0C67-4E70-BFD1-D2A8AD7A39AE}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
